--- a/test_fixtures/sacramento/cadoj_sacramento_source.xlsx
+++ b/test_fixtures/sacramento/cadoj_sacramento_source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/newuser/go/src/gogen/test_fixtures/sacramento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C222CD82-9346-1342-B139-845F8D9B3D0B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7246C0-8CF6-8644-84E4-D441CE22A489}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="27320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="27320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2380,116 +2380,117 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DC34"/>
+  <dimension ref="B1:DD34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.33203125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="12" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9.83203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="1" customWidth="1"/>
-    <col min="18" max="19" width="8" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.83203125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.83203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="17.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="18.33203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="18" style="1" customWidth="1"/>
-    <col min="27" max="27" width="19" style="1" customWidth="1"/>
-    <col min="28" max="28" width="7.83203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.1640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5" style="1" customWidth="1"/>
-    <col min="31" max="31" width="14.5" style="1" customWidth="1"/>
-    <col min="32" max="32" width="10.6640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="10.83203125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="10.1640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="16.5" style="1" customWidth="1"/>
-    <col min="36" max="36" width="13.5" style="1" customWidth="1"/>
-    <col min="37" max="37" width="11.83203125" style="1" customWidth="1"/>
-    <col min="38" max="38" width="10.1640625" style="1" customWidth="1"/>
-    <col min="39" max="39" width="13" style="1" customWidth="1"/>
-    <col min="40" max="40" width="11.5" style="1" customWidth="1"/>
-    <col min="41" max="41" width="16.1640625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="15.5" style="1" customWidth="1"/>
-    <col min="43" max="43" width="21.6640625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="13.6640625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="20.33203125" style="1" customWidth="1"/>
-    <col min="46" max="46" width="14.1640625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="19.5" style="1" customWidth="1"/>
-    <col min="48" max="49" width="19.6640625" style="1" customWidth="1"/>
-    <col min="50" max="50" width="13.33203125" style="1" customWidth="1"/>
-    <col min="51" max="51" width="12.6640625" style="1" customWidth="1"/>
-    <col min="52" max="52" width="10.5" style="1" customWidth="1"/>
-    <col min="53" max="53" width="7" style="1" customWidth="1"/>
-    <col min="54" max="54" width="14.83203125" style="1" customWidth="1"/>
-    <col min="55" max="55" width="37.6640625" style="1" customWidth="1"/>
-    <col min="56" max="56" width="13.6640625" style="1" customWidth="1"/>
-    <col min="57" max="57" width="18.6640625" style="1" customWidth="1"/>
-    <col min="58" max="58" width="19.6640625" style="1" customWidth="1"/>
-    <col min="59" max="59" width="20.6640625" style="1" customWidth="1"/>
-    <col min="60" max="60" width="18.33203125" style="1" customWidth="1"/>
-    <col min="61" max="61" width="23.33203125" style="1" customWidth="1"/>
-    <col min="62" max="62" width="21.6640625" style="1" customWidth="1"/>
-    <col min="63" max="63" width="20.5" style="1" customWidth="1"/>
-    <col min="64" max="64" width="21.5" style="1" customWidth="1"/>
-    <col min="65" max="65" width="19.33203125" style="1" customWidth="1"/>
-    <col min="66" max="66" width="24.33203125" style="1" customWidth="1"/>
-    <col min="67" max="67" width="15.1640625" style="1" customWidth="1"/>
-    <col min="68" max="68" width="17.1640625" style="1" customWidth="1"/>
-    <col min="69" max="69" width="20" style="1" customWidth="1"/>
-    <col min="70" max="70" width="13" style="1" customWidth="1"/>
-    <col min="71" max="71" width="16.33203125" style="1" customWidth="1"/>
-    <col min="72" max="73" width="17.1640625" style="1" customWidth="1"/>
-    <col min="74" max="76" width="16.6640625" style="1" customWidth="1"/>
-    <col min="77" max="77" width="18" style="1" customWidth="1"/>
-    <col min="78" max="78" width="17.6640625" style="1" customWidth="1"/>
-    <col min="79" max="79" width="12.1640625" style="1" customWidth="1"/>
-    <col min="80" max="80" width="11" style="1" customWidth="1"/>
-    <col min="81" max="81" width="26.33203125" style="1" customWidth="1"/>
-    <col min="82" max="82" width="16.83203125" style="1" customWidth="1"/>
-    <col min="83" max="83" width="17.6640625" style="1" customWidth="1"/>
-    <col min="84" max="84" width="14.33203125" style="1" customWidth="1"/>
-    <col min="85" max="85" width="12.6640625" style="1" customWidth="1"/>
-    <col min="86" max="86" width="16" style="1" customWidth="1"/>
-    <col min="87" max="87" width="16.83203125" style="1" customWidth="1"/>
-    <col min="88" max="88" width="13.5" style="1" customWidth="1"/>
-    <col min="89" max="89" width="16.5" style="1" customWidth="1"/>
-    <col min="90" max="90" width="109.5" style="1" customWidth="1"/>
-    <col min="91" max="91" width="9.33203125" style="1" customWidth="1"/>
-    <col min="92" max="92" width="8.83203125" style="1" customWidth="1"/>
-    <col min="93" max="93" width="15.33203125" style="1" customWidth="1"/>
-    <col min="94" max="94" width="26.83203125" style="1" customWidth="1"/>
-    <col min="95" max="95" width="12.5" style="1" customWidth="1"/>
-    <col min="96" max="96" width="29.6640625" style="1" customWidth="1"/>
-    <col min="97" max="97" width="24" style="1" customWidth="1"/>
-    <col min="98" max="100" width="23.6640625" style="1" customWidth="1"/>
-    <col min="101" max="102" width="12.5" style="1" customWidth="1"/>
-    <col min="103" max="103" width="10" style="1" customWidth="1"/>
-    <col min="104" max="104" width="20.5" style="1" customWidth="1"/>
-    <col min="105" max="106" width="25.83203125" style="1" customWidth="1"/>
-    <col min="107" max="107" width="29.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9.33203125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="12" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="1" customWidth="1"/>
+    <col min="19" max="20" width="8" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.83203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="17.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="18.33203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="18" style="1" customWidth="1"/>
+    <col min="28" max="28" width="19" style="1" customWidth="1"/>
+    <col min="29" max="29" width="7.83203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.1640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="15.5" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5" style="1" customWidth="1"/>
+    <col min="33" max="33" width="10.6640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="10.83203125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="10.1640625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="16.5" style="1" customWidth="1"/>
+    <col min="37" max="37" width="13.5" style="1" customWidth="1"/>
+    <col min="38" max="38" width="11.83203125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="10.1640625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="13" style="1" customWidth="1"/>
+    <col min="41" max="41" width="11.5" style="1" customWidth="1"/>
+    <col min="42" max="42" width="16.1640625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="15.5" style="1" customWidth="1"/>
+    <col min="44" max="44" width="21.6640625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="13.6640625" style="1" customWidth="1"/>
+    <col min="46" max="46" width="20.33203125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="14.1640625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="19.5" style="1" customWidth="1"/>
+    <col min="49" max="50" width="19.6640625" style="1" customWidth="1"/>
+    <col min="51" max="51" width="13.33203125" style="1" customWidth="1"/>
+    <col min="52" max="52" width="12.6640625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="10.5" style="1" customWidth="1"/>
+    <col min="54" max="54" width="7" style="1" customWidth="1"/>
+    <col min="55" max="55" width="14.83203125" style="1" customWidth="1"/>
+    <col min="56" max="56" width="37.6640625" style="1" customWidth="1"/>
+    <col min="57" max="57" width="13.6640625" style="1" customWidth="1"/>
+    <col min="58" max="58" width="18.6640625" style="1" customWidth="1"/>
+    <col min="59" max="59" width="19.6640625" style="1" customWidth="1"/>
+    <col min="60" max="60" width="20.6640625" style="1" customWidth="1"/>
+    <col min="61" max="61" width="18.33203125" style="1" customWidth="1"/>
+    <col min="62" max="62" width="23.33203125" style="1" customWidth="1"/>
+    <col min="63" max="63" width="21.6640625" style="1" customWidth="1"/>
+    <col min="64" max="64" width="20.5" style="1" customWidth="1"/>
+    <col min="65" max="65" width="21.5" style="1" customWidth="1"/>
+    <col min="66" max="66" width="19.33203125" style="1" customWidth="1"/>
+    <col min="67" max="67" width="24.33203125" style="1" customWidth="1"/>
+    <col min="68" max="68" width="15.1640625" style="1" customWidth="1"/>
+    <col min="69" max="69" width="17.1640625" style="1" customWidth="1"/>
+    <col min="70" max="70" width="20" style="1" customWidth="1"/>
+    <col min="71" max="71" width="13" style="1" customWidth="1"/>
+    <col min="72" max="72" width="16.33203125" style="1" customWidth="1"/>
+    <col min="73" max="74" width="17.1640625" style="1" customWidth="1"/>
+    <col min="75" max="77" width="16.6640625" style="1" customWidth="1"/>
+    <col min="78" max="78" width="18" style="1" customWidth="1"/>
+    <col min="79" max="79" width="17.6640625" style="1" customWidth="1"/>
+    <col min="80" max="80" width="12.1640625" style="1" customWidth="1"/>
+    <col min="81" max="81" width="11" style="1" customWidth="1"/>
+    <col min="82" max="82" width="26.33203125" style="1" customWidth="1"/>
+    <col min="83" max="83" width="16.83203125" style="1" customWidth="1"/>
+    <col min="84" max="84" width="17.6640625" style="1" customWidth="1"/>
+    <col min="85" max="85" width="14.33203125" style="1" customWidth="1"/>
+    <col min="86" max="86" width="12.6640625" style="1" customWidth="1"/>
+    <col min="87" max="87" width="16" style="1" customWidth="1"/>
+    <col min="88" max="88" width="16.83203125" style="1" customWidth="1"/>
+    <col min="89" max="89" width="13.5" style="1" customWidth="1"/>
+    <col min="90" max="90" width="16.5" style="1" customWidth="1"/>
+    <col min="91" max="91" width="109.5" style="1" customWidth="1"/>
+    <col min="92" max="92" width="9.33203125" style="1" customWidth="1"/>
+    <col min="93" max="93" width="8.83203125" style="1" customWidth="1"/>
+    <col min="94" max="94" width="15.33203125" style="1" customWidth="1"/>
+    <col min="95" max="95" width="26.83203125" style="1" customWidth="1"/>
+    <col min="96" max="96" width="12.5" style="1" customWidth="1"/>
+    <col min="97" max="97" width="29.6640625" style="1" customWidth="1"/>
+    <col min="98" max="98" width="24" style="1" customWidth="1"/>
+    <col min="99" max="101" width="23.6640625" style="1" customWidth="1"/>
+    <col min="102" max="103" width="12.5" style="1" customWidth="1"/>
+    <col min="104" max="104" width="10" style="1" customWidth="1"/>
+    <col min="105" max="105" width="20.5" style="1" customWidth="1"/>
+    <col min="106" max="107" width="25.83203125" style="1" customWidth="1"/>
+    <col min="108" max="108" width="29.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" s="48" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="2:108" s="48" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="47"/>
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
@@ -2498,9 +2499,7 @@
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
       <c r="K1" s="47"/>
-      <c r="L1" s="47" t="s">
-        <v>274</v>
-      </c>
+      <c r="L1" s="47"/>
       <c r="M1" s="47" t="s">
         <v>274</v>
       </c>
@@ -2510,17 +2509,19 @@
       <c r="O1" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="P1" s="47"/>
+      <c r="P1" s="47" t="s">
+        <v>274</v>
+      </c>
       <c r="Q1" s="47"/>
       <c r="R1" s="47"/>
       <c r="S1" s="47"/>
       <c r="T1" s="47"/>
       <c r="U1" s="47"/>
       <c r="V1" s="47"/>
-      <c r="W1" s="47" t="s">
+      <c r="W1" s="47"/>
+      <c r="X1" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="X1" s="47"/>
       <c r="Y1" s="47"/>
       <c r="Z1" s="47"/>
       <c r="AA1" s="47"/>
@@ -2534,39 +2535,39 @@
       <c r="AI1" s="47"/>
       <c r="AJ1" s="47"/>
       <c r="AK1" s="47"/>
-      <c r="AL1" s="47" t="s">
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="AM1" s="47"/>
       <c r="AN1" s="47"/>
-      <c r="AO1" s="47" t="s">
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="AP1" s="47"/>
       <c r="AQ1" s="47"/>
       <c r="AR1" s="47"/>
       <c r="AS1" s="47"/>
       <c r="AT1" s="47"/>
-      <c r="AU1" s="47" t="s">
+      <c r="AU1" s="47"/>
+      <c r="AV1" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="AV1" s="47"/>
-      <c r="AW1" s="47" t="s">
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="AX1" s="47"/>
       <c r="AY1" s="47"/>
-      <c r="AZ1" s="47" t="s">
-        <v>274</v>
-      </c>
+      <c r="AZ1" s="47"/>
       <c r="BA1" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="47" t="s">
+      <c r="BB1" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="BD1" s="47"/>
+      <c r="BC1" s="47"/>
+      <c r="BD1" s="47" t="s">
+        <v>274</v>
+      </c>
       <c r="BE1" s="47"/>
       <c r="BF1" s="47"/>
       <c r="BG1" s="47"/>
@@ -2591,34 +2592,32 @@
       <c r="BZ1" s="47"/>
       <c r="CA1" s="47"/>
       <c r="CB1" s="47"/>
-      <c r="CC1" s="47" t="s">
+      <c r="CC1" s="47"/>
+      <c r="CD1" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="CD1" s="47"/>
-      <c r="CE1" s="47" t="s">
+      <c r="CE1" s="47"/>
+      <c r="CF1" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="CF1" s="47"/>
       <c r="CG1" s="47"/>
       <c r="CH1" s="47"/>
-      <c r="CI1" s="47" t="s">
-        <v>274</v>
-      </c>
+      <c r="CI1" s="47"/>
       <c r="CJ1" s="47" t="s">
         <v>274</v>
       </c>
       <c r="CK1" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="CL1" s="47"/>
-      <c r="CM1" s="47" t="s">
+      <c r="CL1" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="CN1" s="47"/>
+      <c r="CM1" s="47"/>
+      <c r="CN1" s="47" t="s">
+        <v>274</v>
+      </c>
       <c r="CO1" s="47"/>
-      <c r="CP1" s="47" t="s">
-        <v>274</v>
-      </c>
+      <c r="CP1" s="47"/>
       <c r="CQ1" s="47" t="s">
         <v>274</v>
       </c>
@@ -2658,349 +2657,349 @@
       <c r="DC1" s="47" t="s">
         <v>274</v>
       </c>
+      <c r="DD1" s="47" t="s">
+        <v>274</v>
+      </c>
     </row>
-    <row r="2" spans="1:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="2:108" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AU2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" s="2" t="s">
+      <c r="AV2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AX2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BA2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BF2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BG2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BN2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BO2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BO2" s="2" t="s">
+      <c r="BP2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BP2" s="2" t="s">
+      <c r="BQ2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ2" s="2" t="s">
+      <c r="BR2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BR2" s="2" t="s">
+      <c r="BS2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BS2" s="2" t="s">
+      <c r="BT2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BT2" s="2" t="s">
+      <c r="BU2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BU2" s="2" t="s">
+      <c r="BV2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BV2" s="2" t="s">
+      <c r="BW2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BW2" s="2" t="s">
+      <c r="BX2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BX2" s="2" t="s">
+      <c r="BY2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BY2" s="2" t="s">
+      <c r="BZ2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ2" s="2" t="s">
+      <c r="CA2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CA2" s="2" t="s">
+      <c r="CB2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CB2" s="2" t="s">
+      <c r="CC2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CC2" s="2" t="s">
+      <c r="CD2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CD2" s="2" t="s">
+      <c r="CE2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CE2" s="2" t="s">
+      <c r="CF2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CF2" s="2" t="s">
+      <c r="CG2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CG2" s="2" t="s">
+      <c r="CH2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CH2" s="2" t="s">
+      <c r="CI2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CI2" s="2" t="s">
+      <c r="CJ2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CJ2" s="2" t="s">
+      <c r="CK2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CK2" s="2" t="s">
+      <c r="CL2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CL2" s="2" t="s">
+      <c r="CM2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CM2" s="2" t="s">
+      <c r="CN2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CN2" s="2" t="s">
+      <c r="CO2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CO2" s="2" t="s">
+      <c r="CP2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="CP2" s="2" t="s">
+      <c r="CQ2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="CQ2" s="2" t="s">
+      <c r="CR2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="CR2" s="2" t="s">
+      <c r="CS2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="CS2" s="2" t="s">
+      <c r="CT2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CT2" s="2" t="s">
+      <c r="CU2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="CU2" s="2" t="s">
+      <c r="CV2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CV2" s="2" t="s">
+      <c r="CW2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="CW2" s="2" t="s">
+      <c r="CX2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="CX2" s="2" t="s">
+      <c r="CY2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="CY2" s="2" t="s">
+      <c r="CZ2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="CZ2" s="2" t="s">
+      <c r="DA2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="DA2" s="2" t="s">
+      <c r="DB2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="DB2" s="2" t="s">
+      <c r="DC2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="DC2" s="2" t="s">
+      <c r="DD2" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:107" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="5">
+    <row r="3" spans="2:108" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="5">
         <v>18675309</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="5">
         <v>1008675309</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="G3" s="6" t="s">
         <v>107</v>
       </c>
@@ -3014,29 +3013,29 @@
         <v>107</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="L3" s="5">
+        <v>107</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" s="5">
         <v>1008675309</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="O3" s="5">
+      <c r="O3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" s="5">
         <v>19600314</v>
       </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <v>123456789</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="R3" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="S3" s="6" t="s">
         <v>107</v>
       </c>
@@ -3095,26 +3094,26 @@
         <v>107</v>
       </c>
       <c r="AL3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM3" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="AM3" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="AN3" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="AO3" s="5">
+      <c r="AO3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP3" s="5">
         <v>19790525</v>
       </c>
-      <c r="AP3" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR3" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AR3" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="AS3" s="6" t="s">
         <v>107</v>
       </c>
@@ -3122,39 +3121,41 @@
         <v>107</v>
       </c>
       <c r="AU3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV3" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="AV3" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="AW3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX3" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="AX3" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY3" s="38" t="s">
+      <c r="AY3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ3" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="AZ3" s="5">
+      <c r="BA3" s="5">
         <v>19790525</v>
       </c>
-      <c r="BA3" s="5">
+      <c r="BB3" s="5">
         <v>140189</v>
       </c>
-      <c r="BB3" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="BC3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD3" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="BD3" s="6" t="s">
+      <c r="BE3" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="BE3" s="6" t="s">
+      <c r="BF3" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="BF3" s="7"/>
       <c r="BG3" s="7"/>
       <c r="BH3" s="7"/>
       <c r="BI3" s="7"/>
@@ -3177,35 +3178,35 @@
       <c r="BZ3" s="7"/>
       <c r="CA3" s="7"/>
       <c r="CB3" s="7"/>
-      <c r="CC3" s="6" t="s">
+      <c r="CC3" s="7"/>
+      <c r="CD3" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="CD3" s="7"/>
-      <c r="CE3" s="6" t="s">
+      <c r="CE3" s="7"/>
+      <c r="CF3" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="CF3" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG3" s="7"/>
+      <c r="CG3" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="CH3" s="7"/>
       <c r="CI3" s="7"/>
       <c r="CJ3" s="7"/>
       <c r="CK3" s="7"/>
-      <c r="CL3" s="6" t="s">
+      <c r="CL3" s="7"/>
+      <c r="CM3" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="CM3" s="5">
+      <c r="CN3" s="5">
         <v>23</v>
       </c>
-      <c r="CN3" s="7"/>
       <c r="CO3" s="7"/>
       <c r="CP3" s="7"/>
-      <c r="CQ3" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR3" s="7"/>
-      <c r="CS3" s="6"/>
+      <c r="CQ3" s="7"/>
+      <c r="CR3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS3" s="7"/>
       <c r="CT3" s="6"/>
       <c r="CU3" s="6"/>
       <c r="CV3" s="6"/>
@@ -3213,29 +3214,27 @@
       <c r="CX3" s="6"/>
       <c r="CY3" s="6"/>
       <c r="CZ3" s="6"/>
-      <c r="DA3" s="7"/>
+      <c r="DA3" s="6"/>
       <c r="DB3" s="7"/>
       <c r="DC3" s="7"/>
+      <c r="DD3" s="7"/>
     </row>
-    <row r="4" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="10">
+    <row r="4" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="10">
         <v>18675309</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="10">
         <v>1008675309</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="G4" s="11" t="s">
         <v>107</v>
       </c>
@@ -3249,29 +3248,29 @@
         <v>107</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L4" s="10">
+        <v>107</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" s="10">
         <v>1008675309</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="N4" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="O4" s="10">
+      <c r="O4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" s="10">
         <v>19600314</v>
       </c>
-      <c r="P4" s="10">
+      <c r="Q4" s="10">
         <v>123456789</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="R4" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="R4" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="S4" s="11" t="s">
         <v>107</v>
       </c>
@@ -3330,66 +3329,68 @@
         <v>107</v>
       </c>
       <c r="AL4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM4" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AM4" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AN4" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AO4" s="10">
+      <c r="AO4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP4" s="10">
         <v>19790601</v>
       </c>
-      <c r="AP4" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR4" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AR4" s="11" t="s">
+      <c r="AS4" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AS4" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AT4" s="11" t="s">
         <v>107</v>
       </c>
       <c r="AU4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV4" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="AV4" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AW4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AX4" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY4" s="39" t="s">
+      <c r="AY4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ4" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="AZ4" s="10">
+      <c r="BA4" s="10">
         <v>19790601</v>
       </c>
-      <c r="BA4" s="11" t="s">
+      <c r="BB4" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="BB4" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="BC4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD4" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="BD4" s="11" t="s">
+      <c r="BE4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="BE4" s="11" t="s">
+      <c r="BF4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="BF4" s="12"/>
       <c r="BG4" s="12"/>
       <c r="BH4" s="12"/>
       <c r="BI4" s="12"/>
@@ -3412,45 +3413,45 @@
       <c r="BZ4" s="12"/>
       <c r="CA4" s="12"/>
       <c r="CB4" s="12"/>
-      <c r="CC4" s="11" t="s">
+      <c r="CC4" s="12"/>
+      <c r="CD4" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="CD4" s="11" t="s">
+      <c r="CE4" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="CE4" s="11" t="s">
+      <c r="CF4" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="CF4" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG4" s="12"/>
-      <c r="CH4" s="11" t="s">
+      <c r="CG4" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH4" s="12"/>
+      <c r="CI4" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="CI4" s="11" t="s">
+      <c r="CJ4" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="CJ4" s="10">
+      <c r="CK4" s="10">
         <v>90</v>
       </c>
-      <c r="CK4" s="11" t="s">
+      <c r="CL4" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="CL4" s="11" t="s">
+      <c r="CM4" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="CM4" s="10">
+      <c r="CN4" s="10">
         <v>23</v>
       </c>
-      <c r="CN4" s="12"/>
       <c r="CO4" s="12"/>
       <c r="CP4" s="12"/>
-      <c r="CQ4" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR4" s="12"/>
-      <c r="CS4" s="11"/>
+      <c r="CQ4" s="12"/>
+      <c r="CR4" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS4" s="12"/>
       <c r="CT4" s="11"/>
       <c r="CU4" s="11"/>
       <c r="CV4" s="11"/>
@@ -3458,29 +3459,27 @@
       <c r="CX4" s="11"/>
       <c r="CY4" s="11"/>
       <c r="CZ4" s="11"/>
-      <c r="DA4" s="12"/>
+      <c r="DA4" s="11"/>
       <c r="DB4" s="12"/>
       <c r="DC4" s="12"/>
+      <c r="DD4" s="12"/>
     </row>
-    <row r="5" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="10">
+    <row r="5" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="10">
         <v>18675309</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="E5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="10">
         <v>1008675309</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="G5" s="11" t="s">
         <v>107</v>
       </c>
@@ -3494,29 +3493,29 @@
         <v>107</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L5" s="10">
+        <v>107</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M5" s="10">
         <v>1008675309</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="N5" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="O5" s="10">
+      <c r="O5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P5" s="10">
         <v>19600314</v>
       </c>
-      <c r="P5" s="10">
+      <c r="Q5" s="10">
         <v>123456789</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="R5" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="R5" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="S5" s="11" t="s">
         <v>107</v>
       </c>
@@ -3575,26 +3574,26 @@
         <v>107</v>
       </c>
       <c r="AL5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM5" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AM5" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AN5" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AO5" s="10">
+      <c r="AO5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP5" s="10">
         <v>19810410</v>
       </c>
-      <c r="AP5" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR5" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="AR5" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AS5" s="11" t="s">
         <v>107</v>
       </c>
@@ -3602,39 +3601,41 @@
         <v>107</v>
       </c>
       <c r="AU5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV5" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="AV5" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AW5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX5" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AX5" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY5" s="39" t="s">
+      <c r="AY5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ5" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="AZ5" s="10">
+      <c r="BA5" s="10">
         <v>19810410</v>
       </c>
-      <c r="BA5" s="10">
+      <c r="BB5" s="10">
         <v>140190</v>
       </c>
-      <c r="BB5" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="BC5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD5" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="BD5" s="11" t="s">
+      <c r="BE5" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="BE5" s="11" t="s">
+      <c r="BF5" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="BF5" s="12"/>
       <c r="BG5" s="12"/>
       <c r="BH5" s="12"/>
       <c r="BI5" s="12"/>
@@ -3658,34 +3659,34 @@
       <c r="CA5" s="12"/>
       <c r="CB5" s="12"/>
       <c r="CC5" s="12"/>
-      <c r="CD5" s="11" t="s">
+      <c r="CD5" s="12"/>
+      <c r="CE5" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="CE5" s="11" t="s">
+      <c r="CF5" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="CF5" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG5" s="12"/>
+      <c r="CG5" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="CH5" s="12"/>
       <c r="CI5" s="12"/>
       <c r="CJ5" s="12"/>
       <c r="CK5" s="12"/>
-      <c r="CL5" s="11" t="s">
+      <c r="CL5" s="12"/>
+      <c r="CM5" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="CM5" s="10">
+      <c r="CN5" s="10">
         <v>25</v>
       </c>
-      <c r="CN5" s="12"/>
       <c r="CO5" s="12"/>
       <c r="CP5" s="12"/>
-      <c r="CQ5" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR5" s="12"/>
-      <c r="CS5" s="11"/>
+      <c r="CQ5" s="12"/>
+      <c r="CR5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS5" s="12"/>
       <c r="CT5" s="11"/>
       <c r="CU5" s="11"/>
       <c r="CV5" s="11"/>
@@ -3693,29 +3694,27 @@
       <c r="CX5" s="11"/>
       <c r="CY5" s="11"/>
       <c r="CZ5" s="11"/>
-      <c r="DA5" s="12"/>
+      <c r="DA5" s="11"/>
       <c r="DB5" s="12"/>
       <c r="DC5" s="12"/>
+      <c r="DD5" s="12"/>
     </row>
-    <row r="6" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="10">
+    <row r="6" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="10">
         <v>18675309</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="E6" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="10">
         <v>1008675309</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="G6" s="11" t="s">
         <v>107</v>
       </c>
@@ -3729,29 +3728,29 @@
         <v>107</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L6" s="10">
+        <v>107</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" s="10">
         <v>1008675309</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="N6" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="N6" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="O6" s="10">
+      <c r="O6" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P6" s="10">
         <v>19600314</v>
       </c>
-      <c r="P6" s="10">
+      <c r="Q6" s="10">
         <v>123456789</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="R6" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="R6" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="S6" s="11" t="s">
         <v>107</v>
       </c>
@@ -3810,26 +3809,26 @@
         <v>107</v>
       </c>
       <c r="AL6" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM6" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AM6" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AN6" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AO6" s="10">
+      <c r="AO6" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP6" s="10">
         <v>19810410</v>
       </c>
-      <c r="AP6" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ6" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR6" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="AR6" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AS6" s="11" t="s">
         <v>107</v>
       </c>
@@ -3837,39 +3836,41 @@
         <v>107</v>
       </c>
       <c r="AU6" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV6" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="AV6" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AW6" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX6" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AX6" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY6" s="39" t="s">
+      <c r="AY6" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ6" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="AZ6" s="10">
+      <c r="BA6" s="10">
         <v>19810410</v>
       </c>
-      <c r="BA6" s="10">
+      <c r="BB6" s="10">
         <v>140191</v>
       </c>
-      <c r="BB6" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="BC6" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD6" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="BD6" s="11" t="s">
+      <c r="BE6" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="BE6" s="11" t="s">
+      <c r="BF6" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="BF6" s="12"/>
       <c r="BG6" s="12"/>
       <c r="BH6" s="12"/>
       <c r="BI6" s="12"/>
@@ -3893,34 +3894,34 @@
       <c r="CA6" s="12"/>
       <c r="CB6" s="12"/>
       <c r="CC6" s="12"/>
-      <c r="CD6" s="11" t="s">
+      <c r="CD6" s="12"/>
+      <c r="CE6" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="CE6" s="11" t="s">
+      <c r="CF6" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="CF6" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG6" s="12"/>
+      <c r="CG6" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="CH6" s="12"/>
       <c r="CI6" s="12"/>
       <c r="CJ6" s="12"/>
       <c r="CK6" s="12"/>
-      <c r="CL6" s="11" t="s">
+      <c r="CL6" s="12"/>
+      <c r="CM6" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="CM6" s="10">
+      <c r="CN6" s="10">
         <v>25</v>
       </c>
-      <c r="CN6" s="12"/>
       <c r="CO6" s="12"/>
       <c r="CP6" s="12"/>
-      <c r="CQ6" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR6" s="12"/>
-      <c r="CS6" s="11"/>
+      <c r="CQ6" s="12"/>
+      <c r="CR6" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS6" s="12"/>
       <c r="CT6" s="11"/>
       <c r="CU6" s="11"/>
       <c r="CV6" s="11"/>
@@ -3928,29 +3929,27 @@
       <c r="CX6" s="11"/>
       <c r="CY6" s="11"/>
       <c r="CZ6" s="11"/>
-      <c r="DA6" s="12"/>
+      <c r="DA6" s="11"/>
       <c r="DB6" s="12"/>
       <c r="DC6" s="12"/>
+      <c r="DD6" s="12"/>
     </row>
-    <row r="7" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="10">
+    <row r="7" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="10">
         <v>18675309</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="E7" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="10">
         <v>1008675309</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="G7" s="11" t="s">
         <v>107</v>
       </c>
@@ -3964,29 +3963,29 @@
         <v>107</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L7" s="10">
+        <v>107</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M7" s="10">
         <v>1008675309</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="N7" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="N7" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="O7" s="10">
+      <c r="O7" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P7" s="10">
         <v>19600314</v>
       </c>
-      <c r="P7" s="10">
+      <c r="Q7" s="10">
         <v>123456789</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="R7" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="R7" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="S7" s="11" t="s">
         <v>107</v>
       </c>
@@ -4045,66 +4044,68 @@
         <v>107</v>
       </c>
       <c r="AL7" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM7" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AM7" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AN7" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AO7" s="10">
+      <c r="AO7" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP7" s="10">
         <v>19810411</v>
       </c>
-      <c r="AP7" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ7" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR7" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AR7" s="11" t="s">
+      <c r="AS7" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AS7" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AT7" s="11" t="s">
         <v>107</v>
       </c>
       <c r="AU7" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="AV7" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AW7" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX7" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AX7" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY7" s="39" t="s">
+      <c r="AY7" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ7" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="AZ7" s="10">
+      <c r="BA7" s="10">
         <v>19810411</v>
       </c>
-      <c r="BA7" s="10">
+      <c r="BB7" s="10">
         <v>140192</v>
       </c>
-      <c r="BB7" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="BC7" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD7" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="BD7" s="11" t="s">
+      <c r="BE7" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="BE7" s="11" t="s">
+      <c r="BF7" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="BF7" s="12"/>
       <c r="BG7" s="12"/>
       <c r="BH7" s="12"/>
       <c r="BI7" s="12"/>
@@ -4127,35 +4128,35 @@
       <c r="BZ7" s="12"/>
       <c r="CA7" s="12"/>
       <c r="CB7" s="12"/>
-      <c r="CC7" s="11" t="s">
+      <c r="CC7" s="12"/>
+      <c r="CD7" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="CD7" s="12"/>
-      <c r="CE7" s="11" t="s">
+      <c r="CE7" s="12"/>
+      <c r="CF7" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="CF7" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG7" s="12"/>
+      <c r="CG7" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="CH7" s="12"/>
       <c r="CI7" s="12"/>
       <c r="CJ7" s="12"/>
       <c r="CK7" s="12"/>
-      <c r="CL7" s="11" t="s">
+      <c r="CL7" s="12"/>
+      <c r="CM7" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="CM7" s="10">
+      <c r="CN7" s="10">
         <v>25</v>
       </c>
-      <c r="CN7" s="12"/>
       <c r="CO7" s="12"/>
       <c r="CP7" s="12"/>
-      <c r="CQ7" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR7" s="12"/>
-      <c r="CS7" s="11"/>
+      <c r="CQ7" s="12"/>
+      <c r="CR7" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS7" s="12"/>
       <c r="CT7" s="11"/>
       <c r="CU7" s="11"/>
       <c r="CV7" s="11"/>
@@ -4163,29 +4164,27 @@
       <c r="CX7" s="11"/>
       <c r="CY7" s="11"/>
       <c r="CZ7" s="11"/>
-      <c r="DA7" s="12"/>
+      <c r="DA7" s="11"/>
       <c r="DB7" s="12"/>
       <c r="DC7" s="12"/>
+      <c r="DD7" s="12"/>
     </row>
-    <row r="8" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="10">
+    <row r="8" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="10">
         <v>18675309</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="E8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="10">
         <v>1008675309</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="G8" s="11" t="s">
         <v>107</v>
       </c>
@@ -4199,29 +4198,29 @@
         <v>107</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L8" s="10">
+        <v>107</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" s="10">
         <v>1008675309</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="N8" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="O8" s="10">
+      <c r="O8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="P8" s="10">
         <v>19600314</v>
       </c>
-      <c r="P8" s="10">
+      <c r="Q8" s="10">
         <v>123456789</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="R8" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="R8" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="S8" s="11" t="s">
         <v>107</v>
       </c>
@@ -4280,66 +4279,68 @@
         <v>107</v>
       </c>
       <c r="AL8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM8" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AM8" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AN8" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AO8" s="10">
+      <c r="AO8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP8" s="10">
         <v>19810411</v>
       </c>
-      <c r="AP8" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR8" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AR8" s="11" t="s">
+      <c r="AS8" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AS8" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AT8" s="11" t="s">
         <v>107</v>
       </c>
       <c r="AU8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV8" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="AV8" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AW8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX8" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AX8" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY8" s="39" t="s">
+      <c r="AY8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ8" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="AZ8" s="10">
+      <c r="BA8" s="10">
         <v>19810411</v>
       </c>
-      <c r="BA8" s="10">
+      <c r="BB8" s="10">
         <v>140193</v>
       </c>
-      <c r="BB8" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="BC8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD8" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="BD8" s="11" t="s">
+      <c r="BE8" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="BE8" s="11" t="s">
+      <c r="BF8" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="BF8" s="12"/>
       <c r="BG8" s="12"/>
       <c r="BH8" s="12"/>
       <c r="BI8" s="12"/>
@@ -4362,51 +4363,49 @@
       <c r="BZ8" s="12"/>
       <c r="CA8" s="12"/>
       <c r="CB8" s="12"/>
-      <c r="CC8" s="11" t="s">
+      <c r="CC8" s="12"/>
+      <c r="CD8" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="CD8" s="11" t="s">
+      <c r="CE8" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="CE8" s="11" t="s">
+      <c r="CF8" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="CF8" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG8" s="12"/>
-      <c r="CH8" s="11" t="s">
+      <c r="CG8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH8" s="12"/>
+      <c r="CI8" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="CI8" s="11" t="s">
+      <c r="CJ8" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="CJ8" s="10">
+      <c r="CK8" s="10">
         <v>6</v>
       </c>
-      <c r="CK8" s="11" t="s">
+      <c r="CL8" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="CL8" s="11" t="s">
+      <c r="CM8" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="CM8" s="10">
+      <c r="CN8" s="10">
         <v>25</v>
       </c>
-      <c r="CN8" s="12"/>
       <c r="CO8" s="12"/>
       <c r="CP8" s="12"/>
-      <c r="CQ8" s="11" t="s">
-        <v>108</v>
-      </c>
+      <c r="CQ8" s="12"/>
       <c r="CR8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS8" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="CS8" s="11" t="s">
+      <c r="CT8" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="CT8" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="CU8" s="11" t="s">
         <v>146</v>
@@ -4415,46 +4414,46 @@
         <v>146</v>
       </c>
       <c r="CW8" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CX8" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="CX8" s="11" t="s">
-        <v>148</v>
       </c>
       <c r="CY8" s="11" t="s">
         <v>148</v>
       </c>
       <c r="CZ8" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="DA8" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="DA8" s="11" t="s">
+      <c r="DB8" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="DB8" s="11" t="s">
+      <c r="DC8" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="DC8" s="11" t="s">
+      <c r="DD8" s="11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="15">
+    <row r="9" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="15">
         <v>17954908</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="15">
+      <c r="E9" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="15">
         <v>8690594867</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="G9" s="16" t="s">
         <v>107</v>
       </c>
@@ -4468,29 +4467,29 @@
         <v>107</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L9" s="15">
+        <v>107</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" s="15">
         <v>8690594867</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="N9" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="O9" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="O9" s="15">
+      <c r="P9" s="15">
         <v>19850822</v>
       </c>
-      <c r="P9" s="15">
+      <c r="Q9" s="15">
         <v>987654321</v>
       </c>
-      <c r="Q9" s="16" t="s">
+      <c r="R9" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="R9" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="S9" s="16" t="s">
         <v>107</v>
       </c>
@@ -4549,26 +4548,26 @@
         <v>107</v>
       </c>
       <c r="AL9" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM9" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AM9" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="AN9" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="AO9" s="15">
+      <c r="AO9" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP9" s="15">
         <v>19790525</v>
       </c>
-      <c r="AP9" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ9" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR9" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="AR9" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="AS9" s="16" t="s">
         <v>107</v>
       </c>
@@ -4576,39 +4575,41 @@
         <v>107</v>
       </c>
       <c r="AU9" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV9" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="AV9" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="AW9" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX9" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="AX9" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY9" s="40" t="s">
+      <c r="AY9" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ9" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="AZ9" s="15">
+      <c r="BA9" s="15">
         <v>19790525</v>
       </c>
-      <c r="BA9" s="15">
+      <c r="BB9" s="15">
         <v>987340</v>
       </c>
-      <c r="BB9" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="BC9" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD9" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="BD9" s="16" t="s">
+      <c r="BE9" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="BE9" s="16" t="s">
+      <c r="BF9" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="BF9" s="17"/>
       <c r="BG9" s="17"/>
       <c r="BH9" s="17"/>
       <c r="BI9" s="17"/>
@@ -4631,35 +4632,35 @@
       <c r="BZ9" s="17"/>
       <c r="CA9" s="17"/>
       <c r="CB9" s="17"/>
-      <c r="CC9" s="16" t="s">
+      <c r="CC9" s="17"/>
+      <c r="CD9" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="CD9" s="17"/>
-      <c r="CE9" s="16" t="s">
+      <c r="CE9" s="17"/>
+      <c r="CF9" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="CF9" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG9" s="17"/>
+      <c r="CG9" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="CH9" s="17"/>
       <c r="CI9" s="17"/>
       <c r="CJ9" s="17"/>
       <c r="CK9" s="17"/>
-      <c r="CL9" s="16" t="s">
+      <c r="CL9" s="17"/>
+      <c r="CM9" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="CM9" s="15">
+      <c r="CN9" s="15">
         <v>23</v>
       </c>
-      <c r="CN9" s="17"/>
       <c r="CO9" s="17"/>
       <c r="CP9" s="17"/>
-      <c r="CQ9" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR9" s="17"/>
-      <c r="CS9" s="16"/>
+      <c r="CQ9" s="17"/>
+      <c r="CR9" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS9" s="17"/>
       <c r="CT9" s="16"/>
       <c r="CU9" s="16"/>
       <c r="CV9" s="16"/>
@@ -4667,29 +4668,27 @@
       <c r="CX9" s="16"/>
       <c r="CY9" s="16"/>
       <c r="CZ9" s="16"/>
-      <c r="DA9" s="17"/>
+      <c r="DA9" s="16"/>
       <c r="DB9" s="17"/>
       <c r="DC9" s="17"/>
+      <c r="DD9" s="17"/>
     </row>
-    <row r="10" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="15">
+    <row r="10" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="15">
         <v>17954908</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="15">
+      <c r="E10" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="15">
         <v>8690594867</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="G10" s="16" t="s">
         <v>107</v>
       </c>
@@ -4703,29 +4702,29 @@
         <v>107</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L10" s="15">
+        <v>107</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="15">
         <v>8690594867</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="N10" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="O10" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="O10" s="15">
+      <c r="P10" s="15">
         <v>19850822</v>
       </c>
-      <c r="P10" s="15">
+      <c r="Q10" s="15">
         <v>987654321</v>
       </c>
-      <c r="Q10" s="16" t="s">
+      <c r="R10" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="R10" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="S10" s="16" t="s">
         <v>107</v>
       </c>
@@ -4784,66 +4783,68 @@
         <v>107</v>
       </c>
       <c r="AL10" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM10" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AM10" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="AN10" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="AO10" s="15">
+      <c r="AO10" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP10" s="15">
         <v>19790601</v>
       </c>
-      <c r="AP10" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ10" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR10" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="AR10" s="16" t="s">
+      <c r="AS10" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="AS10" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="AT10" s="16" t="s">
         <v>107</v>
       </c>
       <c r="AU10" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV10" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="AV10" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="AW10" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX10" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="AX10" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY10" s="40" t="s">
+      <c r="AY10" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ10" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="AZ10" s="15">
+      <c r="BA10" s="15">
         <v>19790601</v>
       </c>
-      <c r="BA10" s="15">
+      <c r="BB10" s="15">
         <v>398765</v>
       </c>
-      <c r="BB10" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="BC10" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD10" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="BD10" s="16" t="s">
+      <c r="BE10" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="BE10" s="16" t="s">
+      <c r="BF10" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="BF10" s="17"/>
       <c r="BG10" s="17"/>
       <c r="BH10" s="17"/>
       <c r="BI10" s="17"/>
@@ -4866,99 +4867,97 @@
       <c r="BZ10" s="17"/>
       <c r="CA10" s="17"/>
       <c r="CB10" s="17"/>
-      <c r="CC10" s="16" t="s">
+      <c r="CC10" s="17"/>
+      <c r="CD10" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="CD10" s="16" t="s">
+      <c r="CE10" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="CE10" s="16" t="s">
+      <c r="CF10" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="CF10" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG10" s="17"/>
-      <c r="CH10" s="16" t="s">
+      <c r="CG10" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH10" s="17"/>
+      <c r="CI10" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="CI10" s="16" t="s">
+      <c r="CJ10" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="CJ10" s="15">
+      <c r="CK10" s="15">
         <v>90</v>
       </c>
-      <c r="CK10" s="16" t="s">
+      <c r="CL10" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="CL10" s="16" t="s">
+      <c r="CM10" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="CM10" s="15">
+      <c r="CN10" s="15">
         <v>23</v>
       </c>
-      <c r="CN10" s="17"/>
       <c r="CO10" s="17"/>
       <c r="CP10" s="17"/>
-      <c r="CQ10" s="16" t="s">
-        <v>108</v>
-      </c>
+      <c r="CQ10" s="17"/>
       <c r="CR10" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS10" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="CS10" s="16" t="s">
+      <c r="CT10" s="16" t="s">
         <v>158</v>
-      </c>
-      <c r="CT10" s="16" t="s">
-        <v>146</v>
       </c>
       <c r="CU10" s="16" t="s">
         <v>146</v>
       </c>
       <c r="CV10" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="CW10" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="CW10" s="16" t="s">
+      <c r="CX10" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="CX10" s="16" t="s">
+      <c r="CY10" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="CY10" s="16" t="s">
+      <c r="CZ10" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="CZ10" s="16" t="s">
+      <c r="DA10" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="DA10" s="16" t="s">
+      <c r="DB10" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="DB10" s="16" t="s">
+      <c r="DC10" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="DC10" s="16" t="s">
+      <c r="DD10" s="16" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="15">
+    <row r="11" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="15">
         <v>17954908</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="15">
+      <c r="E11" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="15">
         <v>8690594867</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="G11" s="16" t="s">
         <v>107</v>
       </c>
@@ -4972,29 +4971,29 @@
         <v>107</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L11" s="15">
+        <v>107</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" s="15">
         <v>8690594867</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="N11" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="O11" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="O11" s="15">
+      <c r="P11" s="15">
         <v>19850822</v>
       </c>
-      <c r="P11" s="15">
+      <c r="Q11" s="15">
         <v>987654321</v>
       </c>
-      <c r="Q11" s="16" t="s">
+      <c r="R11" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="R11" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="S11" s="16" t="s">
         <v>107</v>
       </c>
@@ -5053,64 +5052,66 @@
         <v>107</v>
       </c>
       <c r="AL11" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM11" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AM11" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="AN11" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="AO11" s="15">
+      <c r="AO11" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP11" s="15">
         <v>19790601</v>
       </c>
-      <c r="AP11" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ11" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR11" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="AR11" s="16" t="s">
+      <c r="AS11" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="AS11" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="AT11" s="16" t="s">
         <v>107</v>
       </c>
       <c r="AU11" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV11" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="AV11" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="AW11" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX11" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="AX11" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY11" s="40" t="s">
+      <c r="AY11" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ11" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="AZ11" s="15">
+      <c r="BA11" s="15">
         <v>19790601</v>
       </c>
-      <c r="BA11" s="15">
+      <c r="BB11" s="15">
         <v>678544</v>
       </c>
-      <c r="BB11" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="BC11" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD11" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="BD11" s="17"/>
-      <c r="BE11" s="16" t="s">
+      <c r="BE11" s="17"/>
+      <c r="BF11" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="BF11" s="17"/>
       <c r="BG11" s="17"/>
       <c r="BH11" s="17"/>
       <c r="BI11" s="17"/>
@@ -5134,32 +5135,32 @@
       <c r="CA11" s="17"/>
       <c r="CB11" s="17"/>
       <c r="CC11" s="17"/>
-      <c r="CD11" s="16" t="s">
+      <c r="CD11" s="17"/>
+      <c r="CE11" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="CE11" s="17"/>
-      <c r="CF11" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG11" s="17"/>
+      <c r="CF11" s="17"/>
+      <c r="CG11" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="CH11" s="17"/>
       <c r="CI11" s="17"/>
       <c r="CJ11" s="17"/>
       <c r="CK11" s="17"/>
-      <c r="CL11" s="16" t="s">
+      <c r="CL11" s="17"/>
+      <c r="CM11" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="CM11" s="15">
+      <c r="CN11" s="15">
         <v>23</v>
       </c>
-      <c r="CN11" s="17"/>
       <c r="CO11" s="17"/>
       <c r="CP11" s="17"/>
-      <c r="CQ11" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR11" s="17"/>
-      <c r="CS11" s="16"/>
+      <c r="CQ11" s="17"/>
+      <c r="CR11" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS11" s="17"/>
       <c r="CT11" s="16"/>
       <c r="CU11" s="16"/>
       <c r="CV11" s="16"/>
@@ -5167,29 +5168,27 @@
       <c r="CX11" s="16"/>
       <c r="CY11" s="16"/>
       <c r="CZ11" s="16"/>
-      <c r="DA11" s="17"/>
+      <c r="DA11" s="16"/>
       <c r="DB11" s="17"/>
       <c r="DC11" s="17"/>
+      <c r="DD11" s="17"/>
     </row>
-    <row r="12" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="15">
+    <row r="12" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="15">
         <v>17954908</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="E12" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="15">
         <v>8690594867</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="G12" s="16" t="s">
         <v>107</v>
       </c>
@@ -5203,29 +5202,29 @@
         <v>107</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L12" s="15">
+        <v>107</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="M12" s="15">
         <v>8690594867</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="N12" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="O12" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="O12" s="15">
+      <c r="P12" s="15">
         <v>19850822</v>
       </c>
-      <c r="P12" s="15">
+      <c r="Q12" s="15">
         <v>987654321</v>
       </c>
-      <c r="Q12" s="16" t="s">
+      <c r="R12" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="R12" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="S12" s="16" t="s">
         <v>107</v>
       </c>
@@ -5284,66 +5283,68 @@
         <v>107</v>
       </c>
       <c r="AL12" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM12" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AM12" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="AN12" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="AO12" s="15">
+      <c r="AO12" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP12" s="15">
         <v>19801101</v>
       </c>
-      <c r="AP12" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ12" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR12" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="AR12" s="16" t="s">
+      <c r="AS12" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="AS12" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="AT12" s="16" t="s">
         <v>107</v>
       </c>
       <c r="AU12" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV12" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="AV12" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="AW12" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX12" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="AX12" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY12" s="40" t="s">
+      <c r="AY12" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ12" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="AZ12" s="15">
+      <c r="BA12" s="15">
         <v>19801101</v>
       </c>
-      <c r="BA12" s="15">
+      <c r="BB12" s="15">
         <v>398765</v>
       </c>
-      <c r="BB12" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="BC12" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD12" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="BD12" s="16" t="s">
+      <c r="BE12" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="BE12" s="16" t="s">
+      <c r="BF12" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="BF12" s="17"/>
       <c r="BG12" s="17"/>
       <c r="BH12" s="17"/>
       <c r="BI12" s="17"/>
@@ -5366,99 +5367,97 @@
       <c r="BZ12" s="17"/>
       <c r="CA12" s="17"/>
       <c r="CB12" s="17"/>
-      <c r="CC12" s="16" t="s">
+      <c r="CC12" s="17"/>
+      <c r="CD12" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="CD12" s="16" t="s">
+      <c r="CE12" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="CE12" s="16" t="s">
+      <c r="CF12" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="CF12" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG12" s="17"/>
-      <c r="CH12" s="16" t="s">
+      <c r="CG12" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH12" s="17"/>
+      <c r="CI12" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="CI12" s="16" t="s">
+      <c r="CJ12" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="CJ12" s="15">
+      <c r="CK12" s="15">
         <v>90</v>
       </c>
-      <c r="CK12" s="16" t="s">
+      <c r="CL12" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="CL12" s="16" t="s">
+      <c r="CM12" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="CM12" s="15">
+      <c r="CN12" s="15">
         <v>24</v>
       </c>
-      <c r="CN12" s="17"/>
       <c r="CO12" s="17"/>
       <c r="CP12" s="17"/>
-      <c r="CQ12" s="16" t="s">
-        <v>108</v>
-      </c>
+      <c r="CQ12" s="17"/>
       <c r="CR12" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS12" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="CS12" s="16" t="s">
+      <c r="CT12" s="16" t="s">
         <v>158</v>
-      </c>
-      <c r="CT12" s="16" t="s">
-        <v>146</v>
       </c>
       <c r="CU12" s="16" t="s">
         <v>146</v>
       </c>
       <c r="CV12" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="CW12" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="CW12" s="16" t="s">
+      <c r="CX12" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="CX12" s="16" t="s">
+      <c r="CY12" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="CY12" s="16" t="s">
+      <c r="CZ12" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="CZ12" s="16" t="s">
+      <c r="DA12" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="DA12" s="16" t="s">
+      <c r="DB12" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="DB12" s="16" t="s">
+      <c r="DC12" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="DC12" s="16" t="s">
+      <c r="DD12" s="16" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="15">
+    <row r="13" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="15">
         <v>17954908</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="15">
+      <c r="E13" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="15">
         <v>8690594867</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="G13" s="16" t="s">
         <v>107</v>
       </c>
@@ -5472,29 +5471,29 @@
         <v>107</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="L13" s="15">
+        <v>107</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="M13" s="15">
         <v>8690594867</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="N13" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="O13" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="O13" s="15">
+      <c r="P13" s="15">
         <v>19850822</v>
       </c>
-      <c r="P13" s="15">
+      <c r="Q13" s="15">
         <v>987654321</v>
       </c>
-      <c r="Q13" s="16" t="s">
+      <c r="R13" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="R13" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="S13" s="16" t="s">
         <v>107</v>
       </c>
@@ -5553,63 +5552,65 @@
         <v>107</v>
       </c>
       <c r="AL13" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM13" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AM13" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="AN13" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="AO13" s="15">
+      <c r="AO13" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP13" s="15">
         <v>19811126</v>
       </c>
-      <c r="AP13" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ13" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR13" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="AR13" s="16" t="s">
+      <c r="AS13" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="AS13" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="AT13" s="16" t="s">
         <v>107</v>
       </c>
       <c r="AU13" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV13" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="AV13" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="AW13" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX13" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="AX13" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY13" s="40" t="s">
+      <c r="AY13" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ13" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="AZ13" s="15">
+      <c r="BA13" s="15">
         <v>19811128</v>
       </c>
-      <c r="BA13" s="15">
+      <c r="BB13" s="15">
         <v>678544</v>
       </c>
-      <c r="BB13" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="BC13" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD13" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="BD13" s="16" t="s">
+      <c r="BE13" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="BE13" s="17"/>
       <c r="BF13" s="17"/>
       <c r="BG13" s="17"/>
       <c r="BH13" s="17"/>
@@ -5633,41 +5634,41 @@
       <c r="BZ13" s="17"/>
       <c r="CA13" s="17"/>
       <c r="CB13" s="17"/>
-      <c r="CC13" s="16" t="s">
+      <c r="CC13" s="17"/>
+      <c r="CD13" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="CD13" s="17"/>
-      <c r="CE13" s="16" t="s">
+      <c r="CE13" s="17"/>
+      <c r="CF13" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="CF13" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG13" s="17"/>
+      <c r="CG13" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="CH13" s="17"/>
-      <c r="CI13" s="16" t="s">
+      <c r="CI13" s="17"/>
+      <c r="CJ13" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="CJ13" s="15">
+      <c r="CK13" s="15">
         <v>10</v>
       </c>
-      <c r="CK13" s="16" t="s">
+      <c r="CL13" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="CL13" s="16" t="s">
+      <c r="CM13" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="CM13" s="15">
+      <c r="CN13" s="15">
         <v>23</v>
       </c>
-      <c r="CN13" s="17"/>
       <c r="CO13" s="17"/>
       <c r="CP13" s="17"/>
-      <c r="CQ13" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR13" s="17"/>
-      <c r="CS13" s="16"/>
+      <c r="CQ13" s="17"/>
+      <c r="CR13" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS13" s="17"/>
       <c r="CT13" s="16"/>
       <c r="CU13" s="16"/>
       <c r="CV13" s="16"/>
@@ -5675,29 +5676,27 @@
       <c r="CX13" s="16"/>
       <c r="CY13" s="16"/>
       <c r="CZ13" s="16"/>
-      <c r="DA13" s="17"/>
+      <c r="DA13" s="16"/>
       <c r="DB13" s="17"/>
       <c r="DC13" s="17"/>
+      <c r="DD13" s="17"/>
     </row>
-    <row r="14" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="20">
+    <row r="14" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="20">
         <v>23675654</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="20">
+      <c r="E14" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="20">
         <v>1008675309</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="G14" s="21" t="s">
         <v>107</v>
       </c>
@@ -5711,29 +5710,29 @@
         <v>107</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="L14" s="20">
+        <v>107</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" s="20">
         <v>1008675309</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="N14" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="O14" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="O14" s="20">
+      <c r="P14" s="20">
         <v>19600314</v>
       </c>
-      <c r="P14" s="20">
+      <c r="Q14" s="20">
         <v>765894322</v>
       </c>
-      <c r="Q14" s="21" t="s">
+      <c r="R14" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="R14" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="S14" s="21" t="s">
         <v>107</v>
       </c>
@@ -5792,66 +5791,68 @@
         <v>107</v>
       </c>
       <c r="AL14" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM14" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="AM14" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="AN14" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="AO14" s="20">
+      <c r="AO14" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP14" s="20">
         <v>19810411</v>
       </c>
-      <c r="AP14" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ14" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR14" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="AR14" s="21" t="s">
+      <c r="AS14" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="AS14" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="AT14" s="21" t="s">
         <v>107</v>
       </c>
       <c r="AU14" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV14" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="AV14" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="AW14" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX14" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="AX14" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY14" s="41" t="s">
+      <c r="AY14" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ14" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="AZ14" s="20">
+      <c r="BA14" s="20">
         <v>19810411</v>
       </c>
-      <c r="BA14" s="20">
+      <c r="BB14" s="20">
         <v>140194</v>
       </c>
-      <c r="BB14" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="BC14" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD14" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="BD14" s="21" t="s">
+      <c r="BE14" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="BE14" s="21" t="s">
+      <c r="BF14" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="BF14" s="22"/>
       <c r="BG14" s="22"/>
       <c r="BH14" s="22"/>
       <c r="BI14" s="22"/>
@@ -5874,53 +5875,51 @@
       <c r="BZ14" s="22"/>
       <c r="CA14" s="22"/>
       <c r="CB14" s="22"/>
-      <c r="CC14" s="21" t="s">
+      <c r="CC14" s="22"/>
+      <c r="CD14" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="CD14" s="21" t="s">
+      <c r="CE14" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="CE14" s="21" t="s">
+      <c r="CF14" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="CF14" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG14" s="22"/>
-      <c r="CH14" s="21" t="s">
+      <c r="CG14" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH14" s="22"/>
+      <c r="CI14" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="CI14" s="21" t="s">
+      <c r="CJ14" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="CJ14" s="20">
+      <c r="CK14" s="20">
         <v>6</v>
       </c>
-      <c r="CK14" s="21" t="s">
+      <c r="CL14" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="CL14" s="21" t="s">
+      <c r="CM14" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="CM14" s="20">
+      <c r="CN14" s="20">
         <v>25</v>
       </c>
-      <c r="CN14" s="22"/>
       <c r="CO14" s="22"/>
-      <c r="CP14" s="21" t="s">
+      <c r="CP14" s="22"/>
+      <c r="CQ14" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="CQ14" s="21" t="s">
-        <v>108</v>
-      </c>
       <c r="CR14" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS14" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="CS14" s="21" t="s">
+      <c r="CT14" s="21" t="s">
         <v>177</v>
-      </c>
-      <c r="CT14" s="21" t="s">
-        <v>146</v>
       </c>
       <c r="CU14" s="21" t="s">
         <v>146</v>
@@ -5929,46 +5928,46 @@
         <v>146</v>
       </c>
       <c r="CW14" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="CX14" s="21" t="s">
         <v>147</v>
-      </c>
-      <c r="CX14" s="21" t="s">
-        <v>148</v>
       </c>
       <c r="CY14" s="21" t="s">
         <v>148</v>
       </c>
       <c r="CZ14" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="DA14" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="DA14" s="21" t="s">
+      <c r="DB14" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="DB14" s="21" t="s">
+      <c r="DC14" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="DC14" s="21" t="s">
+      <c r="DD14" s="21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="20">
+    <row r="15" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="20">
         <v>23675654</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="20">
+      <c r="E15" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="20">
         <v>1008675309</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="G15" s="21" t="s">
         <v>107</v>
       </c>
@@ -5982,29 +5981,29 @@
         <v>107</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="L15" s="20">
+        <v>107</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" s="20">
         <v>1008675309</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="N15" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="O15" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="O15" s="20">
+      <c r="P15" s="20">
         <v>19600314</v>
       </c>
-      <c r="P15" s="20">
+      <c r="Q15" s="20">
         <v>765894322</v>
       </c>
-      <c r="Q15" s="21" t="s">
+      <c r="R15" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="R15" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="S15" s="21" t="s">
         <v>107</v>
       </c>
@@ -6062,67 +6061,69 @@
       <c r="AK15" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="AL15" s="20">
+      <c r="AL15" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM15" s="20">
         <v>19800301</v>
       </c>
-      <c r="AM15" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="AN15" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="AO15" s="20">
+      <c r="AO15" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP15" s="20">
         <v>19810411</v>
       </c>
-      <c r="AP15" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ15" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR15" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="AR15" s="21" t="s">
+      <c r="AS15" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="AS15" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="AT15" s="21" t="s">
         <v>107</v>
       </c>
       <c r="AU15" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV15" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="AV15" s="21" t="s">
+      <c r="AW15" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="AW15" s="21" t="s">
+      <c r="AX15" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="AX15" s="21" t="s">
+      <c r="AY15" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="AY15" s="41" t="s">
+      <c r="AZ15" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="AZ15" s="20">
+      <c r="BA15" s="20">
         <v>19810411</v>
       </c>
-      <c r="BA15" s="20">
+      <c r="BB15" s="20">
         <v>140194</v>
       </c>
-      <c r="BB15" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="BC15" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD15" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="BD15" s="21" t="s">
+      <c r="BE15" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="BE15" s="21" t="s">
+      <c r="BF15" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="BF15" s="22"/>
       <c r="BG15" s="22"/>
       <c r="BH15" s="22"/>
       <c r="BI15" s="22"/>
@@ -6145,45 +6146,45 @@
       <c r="BZ15" s="22"/>
       <c r="CA15" s="22"/>
       <c r="CB15" s="22"/>
-      <c r="CC15" s="21" t="s">
+      <c r="CC15" s="22"/>
+      <c r="CD15" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="CD15" s="21" t="s">
+      <c r="CE15" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="CE15" s="21" t="s">
+      <c r="CF15" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="CF15" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG15" s="22"/>
-      <c r="CH15" s="21" t="s">
+      <c r="CG15" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH15" s="22"/>
+      <c r="CI15" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="CI15" s="21" t="s">
+      <c r="CJ15" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="CJ15" s="20">
+      <c r="CK15" s="20">
         <v>6</v>
       </c>
-      <c r="CK15" s="21" t="s">
+      <c r="CL15" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="CL15" s="21" t="s">
+      <c r="CM15" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="CM15" s="20">
+      <c r="CN15" s="20">
         <v>25</v>
       </c>
-      <c r="CN15" s="22"/>
       <c r="CO15" s="22"/>
       <c r="CP15" s="22"/>
-      <c r="CQ15" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR15" s="22"/>
-      <c r="CS15" s="21"/>
+      <c r="CQ15" s="22"/>
+      <c r="CR15" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS15" s="22"/>
       <c r="CT15" s="21"/>
       <c r="CU15" s="21"/>
       <c r="CV15" s="21"/>
@@ -6191,29 +6192,27 @@
       <c r="CX15" s="21"/>
       <c r="CY15" s="21"/>
       <c r="CZ15" s="21"/>
-      <c r="DA15" s="22"/>
+      <c r="DA15" s="21"/>
       <c r="DB15" s="22"/>
       <c r="DC15" s="22"/>
+      <c r="DD15" s="22"/>
     </row>
-    <row r="16" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="20">
+    <row r="16" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="20">
         <v>23675654</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="20">
+      <c r="E16" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="20">
         <v>1008675309</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="G16" s="21" t="s">
         <v>107</v>
       </c>
@@ -6227,29 +6226,29 @@
         <v>107</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="L16" s="20">
+        <v>107</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" s="20">
         <v>1008675309</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="N16" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="O16" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="O16" s="20">
+      <c r="P16" s="20">
         <v>19600314</v>
       </c>
-      <c r="P16" s="20">
+      <c r="Q16" s="20">
         <v>765894322</v>
       </c>
-      <c r="Q16" s="21" t="s">
+      <c r="R16" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="R16" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="S16" s="21" t="s">
         <v>107</v>
       </c>
@@ -6307,67 +6306,69 @@
       <c r="AK16" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="AL16" s="20">
+      <c r="AL16" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM16" s="20">
         <v>19800401</v>
       </c>
-      <c r="AM16" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="AN16" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="AO16" s="20">
+      <c r="AO16" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP16" s="20">
         <v>19810311</v>
       </c>
-      <c r="AP16" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ16" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR16" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="AR16" s="21" t="s">
+      <c r="AS16" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="AS16" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="AT16" s="21" t="s">
         <v>107</v>
       </c>
       <c r="AU16" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV16" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="AV16" s="21" t="s">
+      <c r="AW16" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="AW16" s="21" t="s">
+      <c r="AX16" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="AX16" s="21" t="s">
+      <c r="AY16" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="AY16" s="41" t="s">
+      <c r="AZ16" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="AZ16" s="20">
+      <c r="BA16" s="20">
         <v>19810411</v>
       </c>
-      <c r="BA16" s="20">
+      <c r="BB16" s="20">
         <v>140194</v>
       </c>
-      <c r="BB16" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="BC16" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD16" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="BD16" s="21" t="s">
+      <c r="BE16" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="BE16" s="21" t="s">
+      <c r="BF16" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="BF16" s="22"/>
       <c r="BG16" s="22"/>
       <c r="BH16" s="22"/>
       <c r="BI16" s="22"/>
@@ -6390,45 +6391,45 @@
       <c r="BZ16" s="22"/>
       <c r="CA16" s="22"/>
       <c r="CB16" s="22"/>
-      <c r="CC16" s="21" t="s">
+      <c r="CC16" s="22"/>
+      <c r="CD16" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="CD16" s="21" t="s">
+      <c r="CE16" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="CE16" s="21" t="s">
+      <c r="CF16" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="CF16" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG16" s="22"/>
-      <c r="CH16" s="21" t="s">
+      <c r="CG16" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH16" s="22"/>
+      <c r="CI16" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="CI16" s="21" t="s">
+      <c r="CJ16" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="CJ16" s="20">
+      <c r="CK16" s="20">
         <v>6</v>
       </c>
-      <c r="CK16" s="21" t="s">
+      <c r="CL16" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="CL16" s="21" t="s">
+      <c r="CM16" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="CM16" s="20">
+      <c r="CN16" s="20">
         <v>25</v>
       </c>
-      <c r="CN16" s="22"/>
       <c r="CO16" s="22"/>
       <c r="CP16" s="22"/>
-      <c r="CQ16" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR16" s="22"/>
-      <c r="CS16" s="21"/>
+      <c r="CQ16" s="22"/>
+      <c r="CR16" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS16" s="22"/>
       <c r="CT16" s="21"/>
       <c r="CU16" s="21"/>
       <c r="CV16" s="21"/>
@@ -6436,29 +6437,27 @@
       <c r="CX16" s="21"/>
       <c r="CY16" s="21"/>
       <c r="CZ16" s="21"/>
-      <c r="DA16" s="22"/>
+      <c r="DA16" s="21"/>
       <c r="DB16" s="22"/>
       <c r="DC16" s="22"/>
+      <c r="DD16" s="22"/>
     </row>
-    <row r="17" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="20">
+    <row r="17" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="20">
         <v>23675654</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="20">
+      <c r="E17" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="20">
         <v>1008675309</v>
       </c>
-      <c r="F17" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="G17" s="21" t="s">
         <v>107</v>
       </c>
@@ -6472,29 +6471,29 @@
         <v>107</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="L17" s="20">
+        <v>107</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="M17" s="20">
         <v>1008675309</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="N17" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="N17" s="21" t="s">
+      <c r="O17" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="O17" s="20">
+      <c r="P17" s="20">
         <v>19600314</v>
       </c>
-      <c r="P17" s="20">
+      <c r="Q17" s="20">
         <v>765894322</v>
       </c>
-      <c r="Q17" s="21" t="s">
+      <c r="R17" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="R17" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="S17" s="21" t="s">
         <v>107</v>
       </c>
@@ -6552,67 +6551,69 @@
       <c r="AK17" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="AL17" s="20">
+      <c r="AL17" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM17" s="20">
         <v>19800501</v>
       </c>
-      <c r="AM17" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="AN17" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="AO17" s="20">
+      <c r="AO17" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP17" s="20">
         <v>19810211</v>
       </c>
-      <c r="AP17" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ17" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR17" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="AR17" s="21" t="s">
+      <c r="AS17" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="AS17" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="AT17" s="21" t="s">
         <v>107</v>
       </c>
       <c r="AU17" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV17" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="AV17" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="AW17" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX17" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="AX17" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY17" s="41" t="s">
+      <c r="AY17" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ17" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="AZ17" s="20">
+      <c r="BA17" s="20">
         <v>19810411</v>
       </c>
-      <c r="BA17" s="20">
+      <c r="BB17" s="20">
         <v>140194</v>
       </c>
-      <c r="BB17" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="BC17" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD17" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="BD17" s="21" t="s">
+      <c r="BE17" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="BE17" s="21" t="s">
+      <c r="BF17" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="BF17" s="22"/>
       <c r="BG17" s="22"/>
       <c r="BH17" s="22"/>
       <c r="BI17" s="22"/>
@@ -6635,51 +6636,49 @@
       <c r="BZ17" s="22"/>
       <c r="CA17" s="22"/>
       <c r="CB17" s="22"/>
-      <c r="CC17" s="21" t="s">
+      <c r="CC17" s="22"/>
+      <c r="CD17" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="CD17" s="21" t="s">
+      <c r="CE17" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="CE17" s="21" t="s">
+      <c r="CF17" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="CF17" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG17" s="22"/>
-      <c r="CH17" s="21" t="s">
+      <c r="CG17" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH17" s="22"/>
+      <c r="CI17" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="CI17" s="21" t="s">
+      <c r="CJ17" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="CJ17" s="20">
+      <c r="CK17" s="20">
         <v>6</v>
       </c>
-      <c r="CK17" s="21" t="s">
+      <c r="CL17" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="CL17" s="21" t="s">
+      <c r="CM17" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="CM17" s="20">
+      <c r="CN17" s="20">
         <v>25</v>
       </c>
-      <c r="CN17" s="22"/>
       <c r="CO17" s="22"/>
       <c r="CP17" s="22"/>
-      <c r="CQ17" s="21" t="s">
-        <v>108</v>
-      </c>
+      <c r="CQ17" s="22"/>
       <c r="CR17" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS17" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="CS17" s="21" t="s">
+      <c r="CT17" s="21" t="s">
         <v>177</v>
-      </c>
-      <c r="CT17" s="21" t="s">
-        <v>146</v>
       </c>
       <c r="CU17" s="21" t="s">
         <v>146</v>
@@ -6688,46 +6687,46 @@
         <v>146</v>
       </c>
       <c r="CW17" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="CX17" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="CX17" s="21" t="s">
+      <c r="CY17" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="CY17" s="21" t="s">
+      <c r="CZ17" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="CZ17" s="21" t="s">
+      <c r="DA17" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="DA17" s="21" t="s">
+      <c r="DB17" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="DB17" s="21" t="s">
+      <c r="DC17" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="DC17" s="21" t="s">
+      <c r="DD17" s="21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="20">
+    <row r="18" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="20">
         <v>23675654</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="20">
+      <c r="E18" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="20">
         <v>1008675309</v>
       </c>
-      <c r="F18" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="G18" s="21" t="s">
         <v>107</v>
       </c>
@@ -6741,29 +6740,29 @@
         <v>107</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="L18" s="20">
+        <v>107</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="M18" s="20">
         <v>1008675309</v>
       </c>
-      <c r="M18" s="21" t="s">
+      <c r="N18" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="N18" s="21" t="s">
+      <c r="O18" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="O18" s="20">
+      <c r="P18" s="20">
         <v>19600314</v>
       </c>
-      <c r="P18" s="20">
+      <c r="Q18" s="20">
         <v>765894322</v>
       </c>
-      <c r="Q18" s="21" t="s">
+      <c r="R18" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="R18" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="S18" s="21" t="s">
         <v>107</v>
       </c>
@@ -6822,66 +6821,68 @@
         <v>107</v>
       </c>
       <c r="AL18" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM18" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="AM18" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="AN18" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="AO18" s="20">
+      <c r="AO18" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP18" s="20">
         <v>19810411</v>
       </c>
-      <c r="AP18" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ18" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR18" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="AR18" s="21" t="s">
+      <c r="AS18" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="AS18" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="AT18" s="21" t="s">
         <v>107</v>
       </c>
       <c r="AU18" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV18" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="AV18" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="AW18" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX18" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="AX18" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY18" s="41" t="s">
+      <c r="AY18" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ18" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="AZ18" s="20">
+      <c r="BA18" s="20">
         <v>19810411</v>
       </c>
-      <c r="BA18" s="20">
+      <c r="BB18" s="20">
         <v>140195</v>
       </c>
-      <c r="BB18" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="BC18" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD18" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="BD18" s="21" t="s">
+      <c r="BE18" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="BE18" s="21" t="s">
+      <c r="BF18" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="BF18" s="22"/>
       <c r="BG18" s="22"/>
       <c r="BH18" s="22"/>
       <c r="BI18" s="22"/>
@@ -6904,43 +6905,43 @@
       <c r="BZ18" s="22"/>
       <c r="CA18" s="22"/>
       <c r="CB18" s="22"/>
-      <c r="CC18" s="21" t="s">
+      <c r="CC18" s="22"/>
+      <c r="CD18" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="CD18" s="22"/>
-      <c r="CE18" s="21" t="s">
+      <c r="CE18" s="22"/>
+      <c r="CF18" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="CF18" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG18" s="22"/>
-      <c r="CH18" s="21" t="s">
+      <c r="CG18" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH18" s="22"/>
+      <c r="CI18" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="CI18" s="21" t="s">
+      <c r="CJ18" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="CJ18" s="20">
+      <c r="CK18" s="20">
         <v>6</v>
       </c>
-      <c r="CK18" s="21" t="s">
+      <c r="CL18" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="CL18" s="21" t="s">
+      <c r="CM18" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="CM18" s="20">
+      <c r="CN18" s="20">
         <v>25</v>
       </c>
-      <c r="CN18" s="22"/>
       <c r="CO18" s="22"/>
       <c r="CP18" s="22"/>
-      <c r="CQ18" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR18" s="22"/>
-      <c r="CS18" s="21"/>
+      <c r="CQ18" s="22"/>
+      <c r="CR18" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS18" s="22"/>
       <c r="CT18" s="21"/>
       <c r="CU18" s="21"/>
       <c r="CV18" s="21"/>
@@ -6948,29 +6949,27 @@
       <c r="CX18" s="21"/>
       <c r="CY18" s="21"/>
       <c r="CZ18" s="21"/>
-      <c r="DA18" s="22"/>
+      <c r="DA18" s="21"/>
       <c r="DB18" s="22"/>
       <c r="DC18" s="22"/>
+      <c r="DD18" s="22"/>
     </row>
-    <row r="19" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="25">
+    <row r="19" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="25">
         <v>90675321</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="25">
+      <c r="E19" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="25">
         <v>1008675309</v>
       </c>
-      <c r="F19" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="G19" s="26" t="s">
         <v>107</v>
       </c>
@@ -6984,29 +6983,29 @@
         <v>107</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L19" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="M19" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="M19" s="26" t="s">
+      <c r="N19" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="N19" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="O19" s="25">
+      <c r="O19" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" s="25">
         <v>19600514</v>
       </c>
-      <c r="P19" s="25">
+      <c r="Q19" s="25">
         <v>123456789</v>
       </c>
-      <c r="Q19" s="26" t="s">
+      <c r="R19" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="R19" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="S19" s="26" t="s">
         <v>107</v>
       </c>
@@ -7065,66 +7064,68 @@
         <v>107</v>
       </c>
       <c r="AL19" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM19" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="AM19" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="AN19" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="AO19" s="25">
+      <c r="AO19" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP19" s="25">
         <v>19810411</v>
       </c>
-      <c r="AP19" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ19" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR19" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="AR19" s="26" t="s">
+      <c r="AS19" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="AS19" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="AT19" s="26" t="s">
         <v>107</v>
       </c>
       <c r="AU19" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV19" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="AV19" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="AW19" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX19" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="AX19" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY19" s="42" t="s">
+      <c r="AY19" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ19" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="AZ19" s="25">
+      <c r="BA19" s="25">
         <v>19810411</v>
       </c>
-      <c r="BA19" s="25">
+      <c r="BB19" s="25">
         <v>140196</v>
       </c>
-      <c r="BB19" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="BC19" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD19" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="BD19" s="26" t="s">
+      <c r="BE19" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="BE19" s="26" t="s">
+      <c r="BF19" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="BF19" s="27"/>
       <c r="BG19" s="27"/>
       <c r="BH19" s="27"/>
       <c r="BI19" s="27"/>
@@ -7147,45 +7148,45 @@
       <c r="BZ19" s="27"/>
       <c r="CA19" s="27"/>
       <c r="CB19" s="27"/>
-      <c r="CC19" s="26" t="s">
+      <c r="CC19" s="27"/>
+      <c r="CD19" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="CD19" s="26" t="s">
+      <c r="CE19" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="CE19" s="26" t="s">
+      <c r="CF19" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="CF19" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG19" s="27"/>
-      <c r="CH19" s="26" t="s">
+      <c r="CG19" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH19" s="27"/>
+      <c r="CI19" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="CI19" s="26" t="s">
+      <c r="CJ19" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="CJ19" s="25">
+      <c r="CK19" s="25">
         <v>6</v>
       </c>
-      <c r="CK19" s="26" t="s">
+      <c r="CL19" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="CL19" s="26" t="s">
+      <c r="CM19" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="CM19" s="25">
+      <c r="CN19" s="25">
         <v>25</v>
       </c>
-      <c r="CN19" s="27"/>
       <c r="CO19" s="27"/>
       <c r="CP19" s="27"/>
-      <c r="CQ19" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR19" s="27"/>
-      <c r="CS19" s="26"/>
+      <c r="CQ19" s="27"/>
+      <c r="CR19" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS19" s="27"/>
       <c r="CT19" s="26"/>
       <c r="CU19" s="26"/>
       <c r="CV19" s="26"/>
@@ -7193,28 +7194,26 @@
       <c r="CX19" s="26"/>
       <c r="CY19" s="26"/>
       <c r="CZ19" s="26"/>
-      <c r="DA19" s="27"/>
+      <c r="DA19" s="26"/>
       <c r="DB19" s="27"/>
       <c r="DC19" s="27"/>
+      <c r="DD19" s="27"/>
     </row>
-    <row r="20" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="23" t="s">
+    <row r="20" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="C20" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="25">
+      <c r="D20" s="25">
         <v>90675321</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E20" s="25">
+      <c r="E20" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="25">
         <v>1008675309</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>192</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>192</v>
@@ -7229,28 +7228,28 @@
         <v>192</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="L20" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="M20" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="M20" s="26" t="s">
+      <c r="N20" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="N20" s="26" t="s">
+      <c r="O20" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="O20" s="25">
+      <c r="P20" s="25">
         <v>19600514</v>
       </c>
-      <c r="P20" s="25">
+      <c r="Q20" s="25">
         <v>123456789</v>
       </c>
-      <c r="Q20" s="26" t="s">
+      <c r="R20" s="26" t="s">
         <v>110</v>
-      </c>
-      <c r="R20" s="26" t="s">
-        <v>192</v>
       </c>
       <c r="S20" s="26" t="s">
         <v>192</v>
@@ -7310,60 +7309,62 @@
         <v>192</v>
       </c>
       <c r="AL20" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM20" s="26" t="s">
         <v>110</v>
-      </c>
-      <c r="AM20" s="26" t="s">
-        <v>192</v>
       </c>
       <c r="AN20" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="AO20" s="25">
+      <c r="AO20" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP20" s="25">
         <v>19810411</v>
       </c>
-      <c r="AP20" s="26" t="s">
+      <c r="AQ20" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="AQ20" s="26" t="s">
+      <c r="AR20" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="AR20" s="26" t="s">
+      <c r="AS20" s="26" t="s">
         <v>121</v>
-      </c>
-      <c r="AS20" s="26" t="s">
-        <v>192</v>
       </c>
       <c r="AT20" s="26" t="s">
         <v>192</v>
       </c>
       <c r="AU20" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="AV20" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="AV20" s="26" t="s">
+      <c r="AW20" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="AW20" s="26" t="s">
+      <c r="AX20" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="AX20" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY20" s="42" t="s">
+      <c r="AY20" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ20" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="AZ20" s="25">
+      <c r="BA20" s="25">
         <v>19810411</v>
       </c>
-      <c r="BA20" s="25">
+      <c r="BB20" s="25">
         <v>140196</v>
       </c>
-      <c r="BB20" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="BC20" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD20" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="BD20" s="27"/>
       <c r="BE20" s="27"/>
       <c r="BF20" s="27"/>
       <c r="BG20" s="27"/>
@@ -7388,97 +7389,95 @@
       <c r="BZ20" s="27"/>
       <c r="CA20" s="27"/>
       <c r="CB20" s="27"/>
-      <c r="CC20" s="26" t="s">
+      <c r="CC20" s="27"/>
+      <c r="CD20" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="CD20" s="26" t="s">
+      <c r="CE20" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="CE20" s="26" t="s">
+      <c r="CF20" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="CF20" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG20" s="27"/>
-      <c r="CH20" s="26" t="s">
+      <c r="CG20" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH20" s="27"/>
+      <c r="CI20" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="CI20" s="26" t="s">
+      <c r="CJ20" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="CJ20" s="25">
+      <c r="CK20" s="25">
         <v>6</v>
       </c>
-      <c r="CK20" s="26" t="s">
+      <c r="CL20" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="CL20" s="26" t="s">
+      <c r="CM20" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="CM20" s="27"/>
       <c r="CN20" s="27"/>
       <c r="CO20" s="27"/>
       <c r="CP20" s="27"/>
-      <c r="CQ20" s="26" t="s">
-        <v>108</v>
-      </c>
+      <c r="CQ20" s="27"/>
       <c r="CR20" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS20" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="CS20" s="26" t="s">
+      <c r="CT20" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="CT20" s="26" t="s">
+      <c r="CU20" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="CU20" s="26" t="s">
+      <c r="CV20" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="CV20" s="26" t="s">
+      <c r="CW20" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="CW20" s="26" t="s">
+      <c r="CX20" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="CX20" s="26" t="s">
+      <c r="CY20" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="CY20" s="26" t="s">
+      <c r="CZ20" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="CZ20" s="26" t="s">
+      <c r="DA20" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="DA20" s="26" t="s">
+      <c r="DB20" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="DB20" s="26" t="s">
+      <c r="DC20" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="DC20" s="26" t="s">
+      <c r="DD20" s="26" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="25">
+    <row r="21" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="25">
         <v>90675321</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="25">
+      <c r="E21" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="25">
         <v>1008675309</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="G21" s="26" t="s">
         <v>107</v>
       </c>
@@ -7492,29 +7491,29 @@
         <v>107</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L21" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="M21" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="N21" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="N21" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="O21" s="25">
+      <c r="O21" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="P21" s="25">
         <v>19600514</v>
       </c>
-      <c r="P21" s="25">
+      <c r="Q21" s="25">
         <v>123456789</v>
       </c>
-      <c r="Q21" s="26" t="s">
+      <c r="R21" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="R21" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="S21" s="26" t="s">
         <v>107</v>
       </c>
@@ -7573,66 +7572,68 @@
         <v>107</v>
       </c>
       <c r="AL21" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM21" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="AM21" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="AN21" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="AO21" s="25">
+      <c r="AO21" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP21" s="25">
         <v>19810411</v>
       </c>
-      <c r="AP21" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ21" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR21" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="AR21" s="26" t="s">
+      <c r="AS21" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="AS21" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="AT21" s="26" t="s">
         <v>107</v>
       </c>
       <c r="AU21" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV21" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="AV21" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="AW21" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX21" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="AX21" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY21" s="42" t="s">
+      <c r="AY21" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ21" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="AZ21" s="25">
+      <c r="BA21" s="25">
         <v>19810411</v>
       </c>
-      <c r="BA21" s="25">
+      <c r="BB21" s="25">
         <v>140197</v>
       </c>
-      <c r="BB21" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="BC21" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD21" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="BD21" s="26" t="s">
+      <c r="BE21" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="BE21" s="26" t="s">
+      <c r="BF21" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="BF21" s="27"/>
       <c r="BG21" s="27"/>
       <c r="BH21" s="27"/>
       <c r="BI21" s="27"/>
@@ -7655,45 +7656,45 @@
       <c r="BZ21" s="27"/>
       <c r="CA21" s="27"/>
       <c r="CB21" s="27"/>
-      <c r="CC21" s="26" t="s">
+      <c r="CC21" s="27"/>
+      <c r="CD21" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="CD21" s="26" t="s">
+      <c r="CE21" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="CE21" s="26" t="s">
+      <c r="CF21" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="CF21" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG21" s="27"/>
-      <c r="CH21" s="26" t="s">
+      <c r="CG21" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH21" s="27"/>
+      <c r="CI21" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="CI21" s="26" t="s">
+      <c r="CJ21" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="CJ21" s="25">
+      <c r="CK21" s="25">
         <v>6</v>
       </c>
-      <c r="CK21" s="26" t="s">
+      <c r="CL21" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="CL21" s="26" t="s">
+      <c r="CM21" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="CM21" s="25">
+      <c r="CN21" s="25">
         <v>25</v>
       </c>
-      <c r="CN21" s="27"/>
       <c r="CO21" s="27"/>
       <c r="CP21" s="27"/>
-      <c r="CQ21" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR21" s="27"/>
-      <c r="CS21" s="26"/>
+      <c r="CQ21" s="27"/>
+      <c r="CR21" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS21" s="27"/>
       <c r="CT21" s="26"/>
       <c r="CU21" s="26"/>
       <c r="CV21" s="26"/>
@@ -7701,29 +7702,27 @@
       <c r="CX21" s="26"/>
       <c r="CY21" s="26"/>
       <c r="CZ21" s="26"/>
-      <c r="DA21" s="27"/>
+      <c r="DA21" s="26"/>
       <c r="DB21" s="27"/>
       <c r="DC21" s="27"/>
+      <c r="DD21" s="27"/>
     </row>
-    <row r="22" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="25">
+    <row r="22" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="25">
         <v>90675321</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="25">
+      <c r="E22" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="25">
         <v>1008675309</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="G22" s="26" t="s">
         <v>107</v>
       </c>
@@ -7737,29 +7736,29 @@
         <v>107</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L22" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="M22" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="M22" s="26" t="s">
+      <c r="N22" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="N22" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="O22" s="25">
+      <c r="O22" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="P22" s="25">
         <v>19600514</v>
       </c>
-      <c r="P22" s="25">
+      <c r="Q22" s="25">
         <v>123456789</v>
       </c>
-      <c r="Q22" s="26" t="s">
+      <c r="R22" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="R22" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="S22" s="26" t="s">
         <v>107</v>
       </c>
@@ -7818,66 +7817,68 @@
         <v>107</v>
       </c>
       <c r="AL22" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM22" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="AM22" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="AN22" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="AO22" s="25">
+      <c r="AO22" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP22" s="25">
         <v>20170312</v>
       </c>
-      <c r="AP22" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ22" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR22" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="AR22" s="26" t="s">
+      <c r="AS22" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="AS22" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="AT22" s="26" t="s">
         <v>107</v>
       </c>
       <c r="AU22" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV22" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="AV22" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="AW22" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX22" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="AX22" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY22" s="42" t="s">
+      <c r="AY22" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ22" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="AZ22" s="25">
+      <c r="BA22" s="25">
         <v>20170313</v>
       </c>
-      <c r="BA22" s="25">
+      <c r="BB22" s="25">
         <v>140197</v>
       </c>
-      <c r="BB22" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="BC22" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD22" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="BD22" s="26" t="s">
+      <c r="BE22" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="BE22" s="26" t="s">
+      <c r="BF22" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="BF22" s="27"/>
       <c r="BG22" s="27"/>
       <c r="BH22" s="27"/>
       <c r="BI22" s="27"/>
@@ -7900,99 +7901,97 @@
       <c r="BZ22" s="27"/>
       <c r="CA22" s="27"/>
       <c r="CB22" s="27"/>
-      <c r="CC22" s="26" t="s">
+      <c r="CC22" s="27"/>
+      <c r="CD22" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="CD22" s="26" t="s">
+      <c r="CE22" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="CE22" s="26" t="s">
+      <c r="CF22" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="CF22" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG22" s="27"/>
-      <c r="CH22" s="26" t="s">
+      <c r="CG22" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH22" s="27"/>
+      <c r="CI22" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="CI22" s="26" t="s">
+      <c r="CJ22" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="CJ22" s="25">
+      <c r="CK22" s="25">
         <v>6</v>
       </c>
-      <c r="CK22" s="26" t="s">
+      <c r="CL22" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="CL22" s="26" t="s">
+      <c r="CM22" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="CM22" s="25">
+      <c r="CN22" s="25">
         <v>61</v>
       </c>
-      <c r="CN22" s="27"/>
       <c r="CO22" s="27"/>
       <c r="CP22" s="27"/>
-      <c r="CQ22" s="26" t="s">
-        <v>108</v>
-      </c>
+      <c r="CQ22" s="27"/>
       <c r="CR22" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS22" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="CS22" s="26" t="s">
+      <c r="CT22" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="CT22" s="26" t="s">
+      <c r="CU22" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="CU22" s="26" t="s">
+      <c r="CV22" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="CV22" s="26" t="s">
+      <c r="CW22" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="CW22" s="26" t="s">
+      <c r="CX22" s="26" t="s">
         <v>201</v>
-      </c>
-      <c r="CX22" s="26" t="s">
-        <v>196</v>
       </c>
       <c r="CY22" s="26" t="s">
         <v>196</v>
       </c>
       <c r="CZ22" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="DA22" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="DA22" s="26" t="s">
+      <c r="DB22" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="DB22" s="26" t="s">
+      <c r="DC22" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="DC22" s="26" t="s">
+      <c r="DD22" s="26" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="30">
+    <row r="23" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="30">
         <v>84734892</v>
       </c>
-      <c r="D23" s="31" t="s">
-        <v>108</v>
-      </c>
       <c r="E23" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="F23" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="G23" s="31" t="s">
         <v>107</v>
       </c>
@@ -8006,29 +8005,29 @@
         <v>107</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L23" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="M23" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="M23" s="31" t="s">
+      <c r="N23" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="N23" s="31" t="s">
+      <c r="O23" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="O23" s="30">
+      <c r="P23" s="30">
         <v>19721127</v>
       </c>
-      <c r="P23" s="30">
+      <c r="Q23" s="30">
         <v>859349023</v>
       </c>
-      <c r="Q23" s="31" t="s">
+      <c r="R23" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="R23" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="S23" s="31" t="s">
         <v>107</v>
       </c>
@@ -8087,66 +8086,68 @@
         <v>107</v>
       </c>
       <c r="AL23" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM23" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="AM23" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="AN23" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="AO23" s="30">
+      <c r="AO23" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP23" s="30">
         <v>19980504</v>
       </c>
-      <c r="AP23" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ23" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR23" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="AR23" s="31" t="s">
+      <c r="AS23" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="AS23" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="AT23" s="31" t="s">
         <v>107</v>
       </c>
       <c r="AU23" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV23" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="AV23" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="AW23" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX23" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="AX23" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY23" s="43" t="s">
+      <c r="AY23" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ23" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="AZ23" s="30">
+      <c r="BA23" s="30">
         <v>19980504</v>
       </c>
-      <c r="BA23" s="30">
+      <c r="BB23" s="30">
         <v>757392</v>
       </c>
-      <c r="BB23" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="BC23" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD23" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="BD23" s="31" t="s">
+      <c r="BE23" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="BE23" s="31" t="s">
+      <c r="BF23" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="BF23" s="32"/>
       <c r="BG23" s="32"/>
       <c r="BH23" s="32"/>
       <c r="BI23" s="32"/>
@@ -8169,95 +8170,93 @@
       <c r="BZ23" s="32"/>
       <c r="CA23" s="32"/>
       <c r="CB23" s="32"/>
-      <c r="CC23" s="31" t="s">
+      <c r="CC23" s="32"/>
+      <c r="CD23" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="CD23" s="31" t="s">
+      <c r="CE23" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="CE23" s="31" t="s">
+      <c r="CF23" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="CF23" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG23" s="32"/>
-      <c r="CH23" s="31" t="s">
+      <c r="CG23" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH23" s="32"/>
+      <c r="CI23" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="CI23" s="31" t="s">
+      <c r="CJ23" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="CJ23" s="30">
+      <c r="CK23" s="30">
         <v>6</v>
       </c>
-      <c r="CK23" s="31" t="s">
+      <c r="CL23" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="CL23" s="31" t="s">
+      <c r="CM23" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="CM23" s="32"/>
       <c r="CN23" s="32"/>
       <c r="CO23" s="32"/>
       <c r="CP23" s="32"/>
       <c r="CQ23" s="32"/>
-      <c r="CR23" s="30">
+      <c r="CR23" s="32"/>
+      <c r="CS23" s="30">
         <v>757392</v>
       </c>
-      <c r="CS23" s="31" t="s">
+      <c r="CT23" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="CT23" s="31" t="s">
+      <c r="CU23" s="31" t="s">
         <v>208</v>
-      </c>
-      <c r="CU23" s="31" t="s">
-        <v>146</v>
       </c>
       <c r="CV23" s="31" t="s">
         <v>146</v>
       </c>
       <c r="CW23" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="CX23" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="CX23" s="31" t="s">
+      <c r="CY23" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="CY23" s="31" t="s">
+      <c r="CZ23" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="CZ23" s="31" t="s">
+      <c r="DA23" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="DA23" s="31" t="s">
+      <c r="DB23" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="DB23" s="31" t="s">
+      <c r="DC23" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="DC23" s="31" t="s">
+      <c r="DD23" s="31" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="30">
+    <row r="24" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="30">
         <v>84734892</v>
       </c>
-      <c r="D24" s="31" t="s">
-        <v>108</v>
-      </c>
       <c r="E24" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="F24" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="G24" s="31" t="s">
         <v>107</v>
       </c>
@@ -8271,29 +8270,29 @@
         <v>107</v>
       </c>
       <c r="K24" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L24" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="M24" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="M24" s="31" t="s">
+      <c r="N24" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="N24" s="31" t="s">
+      <c r="O24" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="O24" s="30">
+      <c r="P24" s="30">
         <v>19721127</v>
       </c>
-      <c r="P24" s="30">
+      <c r="Q24" s="30">
         <v>859349023</v>
       </c>
-      <c r="Q24" s="31" t="s">
+      <c r="R24" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="R24" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="S24" s="31" t="s">
         <v>107</v>
       </c>
@@ -8352,66 +8351,68 @@
         <v>107</v>
       </c>
       <c r="AL24" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM24" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="AM24" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="AN24" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="AO24" s="30">
+      <c r="AO24" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP24" s="30">
         <v>19980504</v>
       </c>
-      <c r="AP24" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ24" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR24" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="AR24" s="31" t="s">
+      <c r="AS24" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="AS24" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="AT24" s="31" t="s">
         <v>107</v>
       </c>
       <c r="AU24" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV24" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="AV24" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="AW24" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX24" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="AX24" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY24" s="43" t="s">
+      <c r="AY24" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ24" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="AZ24" s="30">
+      <c r="BA24" s="30">
         <v>19980504</v>
       </c>
-      <c r="BA24" s="30">
+      <c r="BB24" s="30">
         <v>757392</v>
       </c>
-      <c r="BB24" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="BC24" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD24" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="BD24" s="31" t="s">
+      <c r="BE24" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="BE24" s="31" t="s">
+      <c r="BF24" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="BF24" s="32"/>
       <c r="BG24" s="32"/>
       <c r="BH24" s="32"/>
       <c r="BI24" s="32"/>
@@ -8434,41 +8435,41 @@
       <c r="BZ24" s="32"/>
       <c r="CA24" s="32"/>
       <c r="CB24" s="32"/>
-      <c r="CC24" s="31" t="s">
+      <c r="CC24" s="32"/>
+      <c r="CD24" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="CD24" s="31" t="s">
+      <c r="CE24" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="CE24" s="31" t="s">
+      <c r="CF24" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="CF24" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG24" s="32"/>
-      <c r="CH24" s="31" t="s">
+      <c r="CG24" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH24" s="32"/>
+      <c r="CI24" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="CI24" s="31" t="s">
+      <c r="CJ24" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="CJ24" s="30">
+      <c r="CK24" s="30">
         <v>6</v>
       </c>
-      <c r="CK24" s="31" t="s">
+      <c r="CL24" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="CL24" s="31" t="s">
+      <c r="CM24" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="CM24" s="32"/>
       <c r="CN24" s="32"/>
       <c r="CO24" s="32"/>
       <c r="CP24" s="32"/>
       <c r="CQ24" s="32"/>
       <c r="CR24" s="32"/>
-      <c r="CS24" s="31"/>
+      <c r="CS24" s="32"/>
       <c r="CT24" s="31"/>
       <c r="CU24" s="31"/>
       <c r="CV24" s="31"/>
@@ -8476,29 +8477,27 @@
       <c r="CX24" s="31"/>
       <c r="CY24" s="31"/>
       <c r="CZ24" s="31"/>
-      <c r="DA24" s="32"/>
+      <c r="DA24" s="31"/>
       <c r="DB24" s="32"/>
       <c r="DC24" s="32"/>
+      <c r="DD24" s="32"/>
     </row>
-    <row r="25" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="30">
+    <row r="25" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="30">
         <v>84734892</v>
       </c>
-      <c r="D25" s="31" t="s">
-        <v>108</v>
-      </c>
       <c r="E25" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="F25" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="G25" s="31" t="s">
         <v>107</v>
       </c>
@@ -8512,29 +8511,29 @@
         <v>107</v>
       </c>
       <c r="K25" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L25" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="M25" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="M25" s="31" t="s">
+      <c r="N25" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="N25" s="31" t="s">
+      <c r="O25" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="O25" s="30">
+      <c r="P25" s="30">
         <v>19721127</v>
       </c>
-      <c r="P25" s="30">
+      <c r="Q25" s="30">
         <v>859349023</v>
       </c>
-      <c r="Q25" s="31" t="s">
+      <c r="R25" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="R25" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="S25" s="31" t="s">
         <v>107</v>
       </c>
@@ -8593,53 +8592,55 @@
         <v>107</v>
       </c>
       <c r="AL25" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM25" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="AM25" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="AN25" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="AO25" s="30">
+      <c r="AO25" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP25" s="30">
         <v>20150214</v>
       </c>
-      <c r="AP25" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ25" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR25" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="AR25" s="32"/>
       <c r="AS25" s="32"/>
       <c r="AT25" s="32"/>
-      <c r="AU25" s="31" t="s">
+      <c r="AU25" s="32"/>
+      <c r="AV25" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="AV25" s="32"/>
-      <c r="AW25" s="31" t="s">
+      <c r="AW25" s="32"/>
+      <c r="AX25" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="AX25" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY25" s="43" t="s">
+      <c r="AY25" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ25" s="43" t="s">
         <v>264</v>
       </c>
-      <c r="AZ25" s="30">
+      <c r="BA25" s="30">
         <v>20150315</v>
       </c>
-      <c r="BA25" s="32"/>
-      <c r="BB25" s="31" t="s">
-        <v>107</v>
-      </c>
+      <c r="BB25" s="32"/>
       <c r="BC25" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD25" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="BD25" s="31" t="s">
+      <c r="BE25" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="BE25" s="32"/>
       <c r="BF25" s="32"/>
       <c r="BG25" s="32"/>
       <c r="BH25" s="32"/>
@@ -8663,39 +8664,39 @@
       <c r="BZ25" s="32"/>
       <c r="CA25" s="32"/>
       <c r="CB25" s="32"/>
-      <c r="CC25" s="31" t="s">
+      <c r="CC25" s="32"/>
+      <c r="CD25" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="CD25" s="32"/>
-      <c r="CE25" s="31" t="s">
+      <c r="CE25" s="32"/>
+      <c r="CF25" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="CF25" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG25" s="32"/>
+      <c r="CG25" s="31" t="s">
+        <v>108</v>
+      </c>
       <c r="CH25" s="32"/>
-      <c r="CI25" s="31" t="s">
+      <c r="CI25" s="32"/>
+      <c r="CJ25" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="CJ25" s="30">
+      <c r="CK25" s="30">
         <v>2</v>
       </c>
-      <c r="CK25" s="31" t="s">
+      <c r="CL25" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="CL25" s="31" t="s">
+      <c r="CM25" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="CM25" s="30">
+      <c r="CN25" s="30">
         <v>42</v>
       </c>
-      <c r="CN25" s="32"/>
       <c r="CO25" s="32"/>
       <c r="CP25" s="32"/>
       <c r="CQ25" s="32"/>
       <c r="CR25" s="32"/>
-      <c r="CS25" s="31"/>
+      <c r="CS25" s="32"/>
       <c r="CT25" s="31"/>
       <c r="CU25" s="31"/>
       <c r="CV25" s="31"/>
@@ -8703,29 +8704,27 @@
       <c r="CX25" s="31"/>
       <c r="CY25" s="31"/>
       <c r="CZ25" s="31"/>
-      <c r="DA25" s="32"/>
+      <c r="DA25" s="31"/>
       <c r="DB25" s="32"/>
       <c r="DC25" s="32"/>
+      <c r="DD25" s="32"/>
     </row>
-    <row r="26" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="30">
+    <row r="26" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="30">
         <v>84734892</v>
       </c>
-      <c r="D26" s="31" t="s">
-        <v>108</v>
-      </c>
       <c r="E26" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="F26" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="G26" s="31" t="s">
         <v>107</v>
       </c>
@@ -8739,29 +8738,29 @@
         <v>107</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L26" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="M26" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="M26" s="31" t="s">
+      <c r="N26" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="N26" s="31" t="s">
+      <c r="O26" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="O26" s="30">
+      <c r="P26" s="30">
         <v>19721127</v>
       </c>
-      <c r="P26" s="30">
+      <c r="Q26" s="30">
         <v>859349023</v>
       </c>
-      <c r="Q26" s="31" t="s">
+      <c r="R26" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="R26" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="S26" s="31" t="s">
         <v>107</v>
       </c>
@@ -8820,53 +8819,55 @@
         <v>107</v>
       </c>
       <c r="AL26" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM26" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="AM26" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="AN26" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="AO26" s="30">
+      <c r="AO26" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP26" s="30">
         <v>20150519</v>
       </c>
-      <c r="AP26" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ26" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR26" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="AR26" s="32"/>
       <c r="AS26" s="32"/>
       <c r="AT26" s="32"/>
-      <c r="AU26" s="31" t="s">
+      <c r="AU26" s="32"/>
+      <c r="AV26" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="AV26" s="32"/>
-      <c r="AW26" s="31" t="s">
+      <c r="AW26" s="32"/>
+      <c r="AX26" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="AX26" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY26" s="43" t="s">
+      <c r="AY26" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ26" s="43" t="s">
         <v>265</v>
       </c>
-      <c r="AZ26" s="30">
+      <c r="BA26" s="30">
         <v>20150522</v>
       </c>
-      <c r="BA26" s="32"/>
-      <c r="BB26" s="31" t="s">
-        <v>107</v>
-      </c>
+      <c r="BB26" s="32"/>
       <c r="BC26" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD26" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="BD26" s="31" t="s">
+      <c r="BE26" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="BE26" s="32"/>
       <c r="BF26" s="32"/>
       <c r="BG26" s="32"/>
       <c r="BH26" s="32"/>
@@ -8890,95 +8891,93 @@
       <c r="BZ26" s="32"/>
       <c r="CA26" s="32"/>
       <c r="CB26" s="32"/>
-      <c r="CC26" s="31" t="s">
+      <c r="CC26" s="32"/>
+      <c r="CD26" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="CD26" s="32"/>
-      <c r="CE26" s="31" t="s">
+      <c r="CE26" s="32"/>
+      <c r="CF26" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="CF26" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG26" s="32"/>
-      <c r="CH26" s="31" t="s">
+      <c r="CG26" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH26" s="32"/>
+      <c r="CI26" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="CI26" s="31" t="s">
+      <c r="CJ26" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="CJ26" s="30">
+      <c r="CK26" s="30">
         <v>2</v>
       </c>
-      <c r="CK26" s="31" t="s">
+      <c r="CL26" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="CL26" s="31" t="s">
+      <c r="CM26" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="CM26" s="30">
+      <c r="CN26" s="30">
         <v>42</v>
       </c>
-      <c r="CN26" s="32"/>
       <c r="CO26" s="32"/>
       <c r="CP26" s="32"/>
       <c r="CQ26" s="32"/>
-      <c r="CR26" s="30">
+      <c r="CR26" s="32"/>
+      <c r="CS26" s="30">
         <v>757392</v>
       </c>
-      <c r="CS26" s="31" t="s">
+      <c r="CT26" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="CT26" s="31" t="s">
+      <c r="CU26" s="31" t="s">
         <v>208</v>
-      </c>
-      <c r="CU26" s="31" t="s">
-        <v>146</v>
       </c>
       <c r="CV26" s="31" t="s">
         <v>146</v>
       </c>
       <c r="CW26" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="CX26" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="CX26" s="31" t="s">
+      <c r="CY26" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="CY26" s="31" t="s">
+      <c r="CZ26" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="CZ26" s="31" t="s">
+      <c r="DA26" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="DA26" s="31" t="s">
+      <c r="DB26" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="DB26" s="31" t="s">
+      <c r="DC26" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="DC26" s="31" t="s">
+      <c r="DD26" s="31" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="30">
+    <row r="27" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="30">
         <v>84734892</v>
       </c>
-      <c r="D27" s="31" t="s">
-        <v>108</v>
-      </c>
       <c r="E27" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="F27" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="G27" s="31" t="s">
         <v>107</v>
       </c>
@@ -8992,29 +8991,29 @@
         <v>107</v>
       </c>
       <c r="K27" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L27" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="M27" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="M27" s="31" t="s">
+      <c r="N27" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="N27" s="31" t="s">
+      <c r="O27" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="O27" s="30">
+      <c r="P27" s="30">
         <v>19721127</v>
       </c>
-      <c r="P27" s="30">
+      <c r="Q27" s="30">
         <v>859349023</v>
       </c>
-      <c r="Q27" s="31" t="s">
+      <c r="R27" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="R27" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="S27" s="31" t="s">
         <v>107</v>
       </c>
@@ -9073,53 +9072,55 @@
         <v>107</v>
       </c>
       <c r="AL27" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM27" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="AM27" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="AN27" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="AO27" s="30">
+      <c r="AO27" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP27" s="30">
         <v>20151031</v>
       </c>
-      <c r="AP27" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ27" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR27" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="AR27" s="32"/>
       <c r="AS27" s="32"/>
       <c r="AT27" s="32"/>
-      <c r="AU27" s="31" t="s">
+      <c r="AU27" s="32"/>
+      <c r="AV27" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="AV27" s="32"/>
-      <c r="AW27" s="31" t="s">
+      <c r="AW27" s="32"/>
+      <c r="AX27" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="AX27" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY27" s="43" t="s">
+      <c r="AY27" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ27" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="AZ27" s="30">
+      <c r="BA27" s="30">
         <v>20151031</v>
       </c>
-      <c r="BA27" s="32"/>
-      <c r="BB27" s="31" t="s">
-        <v>107</v>
-      </c>
+      <c r="BB27" s="32"/>
       <c r="BC27" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD27" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="BD27" s="31" t="s">
+      <c r="BE27" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="BE27" s="32"/>
       <c r="BF27" s="32"/>
       <c r="BG27" s="32"/>
       <c r="BH27" s="32"/>
@@ -9143,95 +9144,93 @@
       <c r="BZ27" s="32"/>
       <c r="CA27" s="32"/>
       <c r="CB27" s="32"/>
-      <c r="CC27" s="31" t="s">
+      <c r="CC27" s="32"/>
+      <c r="CD27" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="CD27" s="32"/>
-      <c r="CE27" s="31" t="s">
+      <c r="CE27" s="32"/>
+      <c r="CF27" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="CF27" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG27" s="32"/>
-      <c r="CH27" s="31" t="s">
+      <c r="CG27" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH27" s="32"/>
+      <c r="CI27" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="CI27" s="31" t="s">
+      <c r="CJ27" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="CJ27" s="30">
+      <c r="CK27" s="30">
         <v>2</v>
       </c>
-      <c r="CK27" s="31" t="s">
+      <c r="CL27" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="CL27" s="31" t="s">
+      <c r="CM27" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="CM27" s="30">
+      <c r="CN27" s="30">
         <v>42</v>
       </c>
-      <c r="CN27" s="32"/>
       <c r="CO27" s="32"/>
       <c r="CP27" s="32"/>
       <c r="CQ27" s="32"/>
-      <c r="CR27" s="30">
+      <c r="CR27" s="32"/>
+      <c r="CS27" s="30">
         <v>757392</v>
       </c>
-      <c r="CS27" s="31" t="s">
+      <c r="CT27" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="CT27" s="31" t="s">
+      <c r="CU27" s="31" t="s">
         <v>208</v>
-      </c>
-      <c r="CU27" s="31" t="s">
-        <v>146</v>
       </c>
       <c r="CV27" s="31" t="s">
         <v>146</v>
       </c>
       <c r="CW27" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="CX27" s="31" t="s">
         <v>217</v>
-      </c>
-      <c r="CX27" s="31" t="s">
-        <v>211</v>
       </c>
       <c r="CY27" s="31" t="s">
         <v>211</v>
       </c>
       <c r="CZ27" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="DA27" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="DA27" s="31" t="s">
+      <c r="DB27" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="DB27" s="31" t="s">
+      <c r="DC27" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="DC27" s="31" t="s">
+      <c r="DD27" s="31" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="35">
+    <row r="28" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="35">
         <v>14575654</v>
       </c>
-      <c r="D28" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="35">
+      <c r="E28" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="35">
         <v>1008643215</v>
       </c>
-      <c r="F28" s="36" t="s">
-        <v>107</v>
-      </c>
       <c r="G28" s="36" t="s">
         <v>107</v>
       </c>
@@ -9245,29 +9244,29 @@
         <v>107</v>
       </c>
       <c r="K28" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="L28" s="35">
+        <v>107</v>
+      </c>
+      <c r="L28" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="M28" s="35">
         <v>1008675309</v>
       </c>
-      <c r="M28" s="36" t="s">
+      <c r="N28" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="N28" s="36" t="s">
+      <c r="O28" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="O28" s="35">
+      <c r="P28" s="35">
         <v>19690314</v>
       </c>
-      <c r="P28" s="35">
+      <c r="Q28" s="35">
         <v>743894322</v>
       </c>
-      <c r="Q28" s="36" t="s">
+      <c r="R28" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="R28" s="36" t="s">
-        <v>107</v>
-      </c>
       <c r="S28" s="36" t="s">
         <v>107</v>
       </c>
@@ -9326,66 +9325,68 @@
         <v>107</v>
       </c>
       <c r="AL28" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM28" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="AM28" s="36" t="s">
-        <v>107</v>
-      </c>
       <c r="AN28" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="AO28" s="35">
+      <c r="AO28" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP28" s="35">
         <v>19910411</v>
       </c>
-      <c r="AP28" s="36" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ28" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR28" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="AR28" s="36" t="s">
+      <c r="AS28" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="AS28" s="36" t="s">
-        <v>107</v>
-      </c>
       <c r="AT28" s="36" t="s">
         <v>107</v>
       </c>
       <c r="AU28" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV28" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="AV28" s="36" t="s">
-        <v>107</v>
-      </c>
       <c r="AW28" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX28" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="AX28" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY28" s="44" t="s">
+      <c r="AY28" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ28" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="AZ28" s="35">
+      <c r="BA28" s="35">
         <v>19910411</v>
       </c>
-      <c r="BA28" s="35">
+      <c r="BB28" s="35">
         <v>140195</v>
       </c>
-      <c r="BB28" s="36" t="s">
-        <v>107</v>
-      </c>
       <c r="BC28" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD28" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="BD28" s="36" t="s">
+      <c r="BE28" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="BE28" s="36" t="s">
+      <c r="BF28" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="BF28" s="37"/>
       <c r="BG28" s="37"/>
       <c r="BH28" s="37"/>
       <c r="BI28" s="37"/>
@@ -9408,51 +9409,49 @@
       <c r="BZ28" s="37"/>
       <c r="CA28" s="37"/>
       <c r="CB28" s="37"/>
-      <c r="CC28" s="36" t="s">
+      <c r="CC28" s="37"/>
+      <c r="CD28" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="CD28" s="36" t="s">
+      <c r="CE28" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="CE28" s="36" t="s">
+      <c r="CF28" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="CF28" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG28" s="37"/>
-      <c r="CH28" s="36" t="s">
+      <c r="CG28" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH28" s="37"/>
+      <c r="CI28" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="CI28" s="36" t="s">
+      <c r="CJ28" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="CJ28" s="35">
+      <c r="CK28" s="35">
         <v>6</v>
       </c>
-      <c r="CK28" s="36" t="s">
+      <c r="CL28" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="CL28" s="36" t="s">
+      <c r="CM28" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="CM28" s="35">
+      <c r="CN28" s="35">
         <v>25</v>
       </c>
-      <c r="CN28" s="37"/>
       <c r="CO28" s="37"/>
       <c r="CP28" s="37"/>
-      <c r="CQ28" s="36" t="s">
-        <v>108</v>
-      </c>
+      <c r="CQ28" s="37"/>
       <c r="CR28" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS28" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="CS28" s="36" t="s">
+      <c r="CT28" s="36" t="s">
         <v>158</v>
-      </c>
-      <c r="CT28" s="36" t="s">
-        <v>146</v>
       </c>
       <c r="CU28" s="36" t="s">
         <v>146</v>
@@ -9461,46 +9460,46 @@
         <v>146</v>
       </c>
       <c r="CW28" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="CX28" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="CX28" s="36" t="s">
+      <c r="CY28" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="CY28" s="36" t="s">
+      <c r="CZ28" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="CZ28" s="36" t="s">
+      <c r="DA28" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="DA28" s="36" t="s">
+      <c r="DB28" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="DB28" s="36" t="s">
+      <c r="DC28" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="DC28" s="36" t="s">
+      <c r="DD28" s="36" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="35">
+    <row r="29" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="35">
         <v>14575654</v>
       </c>
-      <c r="D29" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" s="35">
+      <c r="E29" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="35">
         <v>1008643215</v>
       </c>
-      <c r="F29" s="36" t="s">
-        <v>107</v>
-      </c>
       <c r="G29" s="36" t="s">
         <v>107</v>
       </c>
@@ -9514,29 +9513,29 @@
         <v>107</v>
       </c>
       <c r="K29" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="L29" s="35">
+        <v>107</v>
+      </c>
+      <c r="L29" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="M29" s="35">
         <v>1008675309</v>
       </c>
-      <c r="M29" s="36" t="s">
+      <c r="N29" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="N29" s="36" t="s">
+      <c r="O29" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="O29" s="35">
+      <c r="P29" s="35">
         <v>19690314</v>
       </c>
-      <c r="P29" s="35">
+      <c r="Q29" s="35">
         <v>743894322</v>
       </c>
-      <c r="Q29" s="36" t="s">
+      <c r="R29" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="R29" s="36" t="s">
-        <v>107</v>
-      </c>
       <c r="S29" s="36" t="s">
         <v>107</v>
       </c>
@@ -9595,66 +9594,68 @@
         <v>107</v>
       </c>
       <c r="AL29" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM29" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="AM29" s="36" t="s">
-        <v>107</v>
-      </c>
       <c r="AN29" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="AO29" s="35">
+      <c r="AO29" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP29" s="35">
         <v>19910411</v>
       </c>
-      <c r="AP29" s="36" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ29" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR29" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="AR29" s="36" t="s">
+      <c r="AS29" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="AS29" s="36" t="s">
-        <v>107</v>
-      </c>
       <c r="AT29" s="36" t="s">
         <v>107</v>
       </c>
       <c r="AU29" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV29" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="AV29" s="36" t="s">
+      <c r="AW29" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="AW29" s="36" t="s">
+      <c r="AX29" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="AX29" s="36" t="s">
+      <c r="AY29" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="AY29" s="44" t="s">
+      <c r="AZ29" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="AZ29" s="35">
+      <c r="BA29" s="35">
         <v>19910411</v>
       </c>
-      <c r="BA29" s="35">
+      <c r="BB29" s="35">
         <v>222344</v>
       </c>
-      <c r="BB29" s="36" t="s">
-        <v>107</v>
-      </c>
       <c r="BC29" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD29" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="BD29" s="36" t="s">
+      <c r="BE29" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="BE29" s="36" t="s">
+      <c r="BF29" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="BF29" s="37"/>
       <c r="BG29" s="37"/>
       <c r="BH29" s="37"/>
       <c r="BI29" s="37"/>
@@ -9677,45 +9678,45 @@
       <c r="BZ29" s="37"/>
       <c r="CA29" s="37"/>
       <c r="CB29" s="37"/>
-      <c r="CC29" s="36" t="s">
+      <c r="CC29" s="37"/>
+      <c r="CD29" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="CD29" s="36" t="s">
+      <c r="CE29" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="CE29" s="36" t="s">
+      <c r="CF29" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="CF29" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG29" s="37"/>
-      <c r="CH29" s="36" t="s">
+      <c r="CG29" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH29" s="37"/>
+      <c r="CI29" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="CI29" s="36" t="s">
+      <c r="CJ29" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="CJ29" s="35">
+      <c r="CK29" s="35">
         <v>6</v>
       </c>
-      <c r="CK29" s="36" t="s">
+      <c r="CL29" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="CL29" s="36" t="s">
+      <c r="CM29" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="CM29" s="35">
+      <c r="CN29" s="35">
         <v>25</v>
       </c>
-      <c r="CN29" s="37"/>
       <c r="CO29" s="37"/>
       <c r="CP29" s="37"/>
-      <c r="CQ29" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR29" s="37"/>
-      <c r="CS29" s="36"/>
+      <c r="CQ29" s="37"/>
+      <c r="CR29" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS29" s="37"/>
       <c r="CT29" s="36"/>
       <c r="CU29" s="36"/>
       <c r="CV29" s="36"/>
@@ -9723,29 +9724,27 @@
       <c r="CX29" s="36"/>
       <c r="CY29" s="36"/>
       <c r="CZ29" s="36"/>
-      <c r="DA29" s="37"/>
+      <c r="DA29" s="36"/>
       <c r="DB29" s="37"/>
       <c r="DC29" s="37"/>
+      <c r="DD29" s="37"/>
     </row>
-    <row r="30" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="35">
+    <row r="30" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="35">
         <v>14575654</v>
       </c>
-      <c r="D30" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="35">
+      <c r="E30" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="35">
         <v>1008643215</v>
       </c>
-      <c r="F30" s="36" t="s">
-        <v>107</v>
-      </c>
       <c r="G30" s="36" t="s">
         <v>107</v>
       </c>
@@ -9759,29 +9758,29 @@
         <v>107</v>
       </c>
       <c r="K30" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="L30" s="35">
+        <v>107</v>
+      </c>
+      <c r="L30" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="M30" s="35">
         <v>1008675309</v>
       </c>
-      <c r="M30" s="36" t="s">
+      <c r="N30" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="N30" s="36" t="s">
+      <c r="O30" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="O30" s="35">
+      <c r="P30" s="35">
         <v>19690314</v>
       </c>
-      <c r="P30" s="35">
+      <c r="Q30" s="35">
         <v>743894322</v>
       </c>
-      <c r="Q30" s="36" t="s">
+      <c r="R30" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="R30" s="36" t="s">
-        <v>107</v>
-      </c>
       <c r="S30" s="36" t="s">
         <v>107</v>
       </c>
@@ -9840,66 +9839,68 @@
         <v>107</v>
       </c>
       <c r="AL30" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM30" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="AM30" s="36" t="s">
-        <v>107</v>
-      </c>
       <c r="AN30" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="AO30" s="35">
+      <c r="AO30" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP30" s="35">
         <v>20140512</v>
       </c>
-      <c r="AP30" s="36" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ30" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR30" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="AR30" s="36" t="s">
+      <c r="AS30" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="AS30" s="36" t="s">
-        <v>107</v>
-      </c>
       <c r="AT30" s="36" t="s">
         <v>107</v>
       </c>
       <c r="AU30" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV30" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="AV30" s="36" t="s">
+      <c r="AW30" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="AW30" s="36" t="s">
+      <c r="AX30" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="AX30" s="36" t="s">
+      <c r="AY30" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="AY30" s="44" t="s">
+      <c r="AZ30" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="AZ30" s="35">
+      <c r="BA30" s="35">
         <v>20140512</v>
       </c>
-      <c r="BA30" s="35">
+      <c r="BB30" s="35">
         <v>222344</v>
       </c>
-      <c r="BB30" s="36" t="s">
-        <v>107</v>
-      </c>
       <c r="BC30" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD30" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="BD30" s="36" t="s">
+      <c r="BE30" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="BE30" s="36" t="s">
+      <c r="BF30" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="BF30" s="37"/>
       <c r="BG30" s="37"/>
       <c r="BH30" s="37"/>
       <c r="BI30" s="37"/>
@@ -9922,51 +9923,49 @@
       <c r="BZ30" s="37"/>
       <c r="CA30" s="37"/>
       <c r="CB30" s="37"/>
-      <c r="CC30" s="36" t="s">
+      <c r="CC30" s="37"/>
+      <c r="CD30" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="CD30" s="36" t="s">
+      <c r="CE30" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="CE30" s="36" t="s">
+      <c r="CF30" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="CF30" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG30" s="37"/>
-      <c r="CH30" s="36" t="s">
+      <c r="CG30" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH30" s="37"/>
+      <c r="CI30" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="CI30" s="36" t="s">
+      <c r="CJ30" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="CJ30" s="35">
+      <c r="CK30" s="35">
         <v>6</v>
       </c>
-      <c r="CK30" s="36" t="s">
+      <c r="CL30" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="CL30" s="36" t="s">
+      <c r="CM30" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="CM30" s="35">
+      <c r="CN30" s="35">
         <v>25</v>
       </c>
-      <c r="CN30" s="37"/>
       <c r="CO30" s="37"/>
       <c r="CP30" s="37"/>
-      <c r="CQ30" s="36" t="s">
-        <v>108</v>
-      </c>
+      <c r="CQ30" s="37"/>
       <c r="CR30" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS30" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="CS30" s="36" t="s">
+      <c r="CT30" s="36" t="s">
         <v>158</v>
-      </c>
-      <c r="CT30" s="36" t="s">
-        <v>146</v>
       </c>
       <c r="CU30" s="36" t="s">
         <v>146</v>
@@ -9975,46 +9974,46 @@
         <v>146</v>
       </c>
       <c r="CW30" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="CX30" s="36" t="s">
         <v>226</v>
-      </c>
-      <c r="CX30" s="36" t="s">
-        <v>224</v>
       </c>
       <c r="CY30" s="36" t="s">
         <v>224</v>
       </c>
       <c r="CZ30" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="DA30" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="DA30" s="36" t="s">
+      <c r="DB30" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="DB30" s="36" t="s">
+      <c r="DC30" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="DC30" s="36" t="s">
+      <c r="DD30" s="36" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="10">
+    <row r="31" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="10">
         <v>95875321</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="10">
+      <c r="E31" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="10">
         <v>1008609584</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="G31" s="11" t="s">
         <v>107</v>
       </c>
@@ -10028,29 +10027,29 @@
         <v>107</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L31" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M31" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="M31" s="11" t="s">
+      <c r="N31" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="N31" s="11" t="s">
+      <c r="O31" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="O31" s="10">
+      <c r="P31" s="10">
         <v>19690514</v>
       </c>
-      <c r="P31" s="10">
+      <c r="Q31" s="10">
         <v>123646789</v>
       </c>
-      <c r="Q31" s="11" t="s">
+      <c r="R31" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="R31" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="S31" s="11" t="s">
         <v>107</v>
       </c>
@@ -10109,66 +10108,68 @@
         <v>107</v>
       </c>
       <c r="AL31" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM31" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AM31" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AN31" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AO31" s="10">
+      <c r="AO31" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP31" s="10">
         <v>19910411</v>
       </c>
-      <c r="AP31" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ31" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR31" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AR31" s="11" t="s">
+      <c r="AS31" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AS31" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AT31" s="11" t="s">
         <v>107</v>
       </c>
       <c r="AU31" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV31" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="AV31" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AW31" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX31" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AX31" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY31" s="39" t="s">
+      <c r="AY31" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ31" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="AZ31" s="10">
+      <c r="BA31" s="10">
         <v>19910411</v>
       </c>
-      <c r="BA31" s="10">
+      <c r="BB31" s="10">
         <v>140196</v>
       </c>
-      <c r="BB31" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="BC31" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD31" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="BD31" s="11" t="s">
+      <c r="BE31" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="BE31" s="11" t="s">
+      <c r="BF31" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="BF31" s="12"/>
       <c r="BG31" s="12"/>
       <c r="BH31" s="12"/>
       <c r="BI31" s="12"/>
@@ -10191,99 +10192,97 @@
       <c r="BZ31" s="12"/>
       <c r="CA31" s="12"/>
       <c r="CB31" s="12"/>
-      <c r="CC31" s="11" t="s">
+      <c r="CC31" s="12"/>
+      <c r="CD31" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="CD31" s="11" t="s">
+      <c r="CE31" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="CE31" s="11" t="s">
+      <c r="CF31" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="CF31" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG31" s="12"/>
-      <c r="CH31" s="11" t="s">
+      <c r="CG31" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH31" s="12"/>
+      <c r="CI31" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="CI31" s="11" t="s">
+      <c r="CJ31" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="CJ31" s="10">
+      <c r="CK31" s="10">
         <v>6</v>
       </c>
-      <c r="CK31" s="11" t="s">
+      <c r="CL31" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="CL31" s="11" t="s">
+      <c r="CM31" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="CM31" s="10">
+      <c r="CN31" s="10">
         <v>25</v>
       </c>
-      <c r="CN31" s="12"/>
       <c r="CO31" s="12"/>
       <c r="CP31" s="12"/>
-      <c r="CQ31" s="11" t="s">
-        <v>108</v>
-      </c>
+      <c r="CQ31" s="12"/>
       <c r="CR31" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS31" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="CS31" s="11" t="s">
+      <c r="CT31" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="CT31" s="11" t="s">
+      <c r="CU31" s="11" t="s">
         <v>229</v>
-      </c>
-      <c r="CU31" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="CV31" s="11" t="s">
         <v>146</v>
       </c>
       <c r="CW31" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="CX31" s="11" t="s">
         <v>222</v>
-      </c>
-      <c r="CX31" s="11" t="s">
-        <v>223</v>
       </c>
       <c r="CY31" s="11" t="s">
         <v>223</v>
       </c>
       <c r="CZ31" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="DA31" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="DA31" s="11" t="s">
+      <c r="DB31" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="DB31" s="11" t="s">
+      <c r="DC31" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="DC31" s="11" t="s">
+      <c r="DD31" s="11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="10">
+    <row r="32" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="10">
         <v>95875321</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="E32" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="10">
         <v>1008609584</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="G32" s="11" t="s">
         <v>107</v>
       </c>
@@ -10297,29 +10296,29 @@
         <v>107</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L32" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M32" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="M32" s="11" t="s">
+      <c r="N32" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="N32" s="11" t="s">
+      <c r="O32" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="O32" s="10">
+      <c r="P32" s="10">
         <v>19690514</v>
       </c>
-      <c r="P32" s="10">
+      <c r="Q32" s="10">
         <v>123646789</v>
       </c>
-      <c r="Q32" s="11" t="s">
+      <c r="R32" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="R32" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="S32" s="11" t="s">
         <v>107</v>
       </c>
@@ -10378,66 +10377,68 @@
         <v>107</v>
       </c>
       <c r="AL32" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM32" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="AM32" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AN32" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="AO32" s="10">
+      <c r="AO32" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP32" s="10">
         <v>19910411</v>
       </c>
-      <c r="AP32" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ32" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR32" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AR32" s="11" t="s">
+      <c r="AS32" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AS32" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AT32" s="11" t="s">
         <v>107</v>
       </c>
       <c r="AU32" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV32" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="AV32" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="AW32" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX32" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="AX32" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY32" s="39" t="s">
+      <c r="AY32" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ32" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="AZ32" s="10">
+      <c r="BA32" s="10">
         <v>19910411</v>
       </c>
-      <c r="BA32" s="10">
+      <c r="BB32" s="10">
         <v>140134</v>
       </c>
-      <c r="BB32" s="11" t="s">
-        <v>107</v>
-      </c>
       <c r="BC32" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD32" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="BD32" s="11" t="s">
+      <c r="BE32" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="BE32" s="11" t="s">
+      <c r="BF32" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="BF32" s="12"/>
       <c r="BG32" s="12"/>
       <c r="BH32" s="12"/>
       <c r="BI32" s="12"/>
@@ -10460,45 +10461,45 @@
       <c r="BZ32" s="12"/>
       <c r="CA32" s="12"/>
       <c r="CB32" s="12"/>
-      <c r="CC32" s="11" t="s">
+      <c r="CC32" s="12"/>
+      <c r="CD32" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="CD32" s="11" t="s">
+      <c r="CE32" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="CE32" s="11" t="s">
+      <c r="CF32" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="CF32" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG32" s="12"/>
-      <c r="CH32" s="11" t="s">
+      <c r="CG32" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH32" s="12"/>
+      <c r="CI32" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="CI32" s="11" t="s">
+      <c r="CJ32" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="CJ32" s="10">
+      <c r="CK32" s="10">
         <v>6</v>
       </c>
-      <c r="CK32" s="11" t="s">
+      <c r="CL32" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="CL32" s="11" t="s">
+      <c r="CM32" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="CM32" s="10">
+      <c r="CN32" s="10">
         <v>25</v>
       </c>
-      <c r="CN32" s="12"/>
       <c r="CO32" s="12"/>
       <c r="CP32" s="12"/>
-      <c r="CQ32" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR32" s="12"/>
-      <c r="CS32" s="11"/>
+      <c r="CQ32" s="12"/>
+      <c r="CR32" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS32" s="12"/>
       <c r="CT32" s="11"/>
       <c r="CU32" s="11"/>
       <c r="CV32" s="11"/>
@@ -10506,29 +10507,27 @@
       <c r="CX32" s="11"/>
       <c r="CY32" s="11"/>
       <c r="CZ32" s="11"/>
-      <c r="DA32" s="12"/>
+      <c r="DA32" s="11"/>
       <c r="DB32" s="12"/>
       <c r="DC32" s="12"/>
+      <c r="DD32" s="12"/>
     </row>
-    <row r="33" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="15">
+    <row r="33" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="15">
         <v>34499400</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33" s="15">
+      <c r="E33" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="15">
         <v>1003038015</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="G33" s="16" t="s">
         <v>107</v>
       </c>
@@ -10542,26 +10541,26 @@
         <v>107</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L33" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="M33" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="M33" s="16" t="s">
+      <c r="N33" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="N33" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="O33" s="15">
+      <c r="O33" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="P33" s="15">
         <v>20060814</v>
       </c>
-      <c r="P33" s="15">
+      <c r="Q33" s="15">
         <v>846212459</v>
       </c>
-      <c r="Q33" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="R33" s="16" t="s">
         <v>107</v>
       </c>
@@ -10623,26 +10622,26 @@
         <v>107</v>
       </c>
       <c r="AL33" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM33" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="AM33" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="AN33" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="AO33" s="15">
+      <c r="AO33" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP33" s="15">
         <v>20080410</v>
       </c>
-      <c r="AP33" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ33" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR33" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="AR33" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="AS33" s="16" t="s">
         <v>107</v>
       </c>
@@ -10650,34 +10649,36 @@
         <v>107</v>
       </c>
       <c r="AU33" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV33" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="AV33" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="AW33" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX33" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="AX33" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY33" s="40" t="s">
+      <c r="AY33" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ33" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="AZ33" s="15">
+      <c r="BA33" s="15">
         <v>20080410</v>
       </c>
-      <c r="BA33" s="17"/>
-      <c r="BB33" s="16" t="s">
-        <v>107</v>
-      </c>
+      <c r="BB33" s="17"/>
       <c r="BC33" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD33" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="BD33" s="16" t="s">
+      <c r="BE33" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="BE33" s="17"/>
       <c r="BF33" s="17"/>
       <c r="BG33" s="17"/>
       <c r="BH33" s="17"/>
@@ -10701,45 +10702,43 @@
       <c r="BZ33" s="17"/>
       <c r="CA33" s="17"/>
       <c r="CB33" s="17"/>
-      <c r="CC33" s="16" t="s">
+      <c r="CC33" s="17"/>
+      <c r="CD33" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="CD33" s="17"/>
       <c r="CE33" s="17"/>
-      <c r="CF33" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG33" s="17"/>
-      <c r="CH33" s="16" t="s">
+      <c r="CF33" s="17"/>
+      <c r="CG33" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH33" s="17"/>
+      <c r="CI33" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="CI33" s="16" t="s">
+      <c r="CJ33" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="CJ33" s="15">
+      <c r="CK33" s="15">
         <v>10</v>
       </c>
-      <c r="CK33" s="16" t="s">
+      <c r="CL33" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="CL33" s="16" t="s">
+      <c r="CM33" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="CM33" s="15">
+      <c r="CN33" s="15">
         <v>2</v>
       </c>
-      <c r="CN33" s="17"/>
       <c r="CO33" s="17"/>
       <c r="CP33" s="17"/>
-      <c r="CQ33" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR33" s="17"/>
-      <c r="CS33" s="16" t="s">
+      <c r="CQ33" s="17"/>
+      <c r="CR33" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS33" s="17"/>
+      <c r="CT33" s="16" t="s">
         <v>149</v>
-      </c>
-      <c r="CT33" s="16" t="s">
-        <v>146</v>
       </c>
       <c r="CU33" s="16" t="s">
         <v>146</v>
@@ -10748,46 +10747,46 @@
         <v>146</v>
       </c>
       <c r="CW33" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="CX33" s="16" t="s">
         <v>234</v>
-      </c>
-      <c r="CX33" s="16" t="s">
-        <v>235</v>
       </c>
       <c r="CY33" s="16" t="s">
         <v>235</v>
       </c>
       <c r="CZ33" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="DA33" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="DA33" s="16" t="s">
+      <c r="DB33" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="DB33" s="16" t="s">
+      <c r="DC33" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="DC33" s="16" t="s">
+      <c r="DD33" s="16" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="34" spans="1:107" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="20">
+    <row r="34" spans="2:108" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="20">
         <v>43322421</v>
       </c>
-      <c r="D34" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="20">
+      <c r="E34" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="20">
         <v>1004048015</v>
       </c>
-      <c r="F34" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="G34" s="21" t="s">
         <v>107</v>
       </c>
@@ -10801,26 +10800,26 @@
         <v>107</v>
       </c>
       <c r="K34" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L34" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="M34" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="M34" s="21" t="s">
+      <c r="N34" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="N34" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="O34" s="20">
+      <c r="O34" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="P34" s="20">
         <v>19831119</v>
       </c>
-      <c r="P34" s="20">
+      <c r="Q34" s="20">
         <v>678934876</v>
       </c>
-      <c r="Q34" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="R34" s="21" t="s">
         <v>107</v>
       </c>
@@ -10882,26 +10881,26 @@
         <v>107</v>
       </c>
       <c r="AL34" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM34" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="AM34" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="AN34" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="AO34" s="20">
+      <c r="AO34" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP34" s="20">
         <v>20150214</v>
       </c>
-      <c r="AP34" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ34" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR34" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="AR34" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="AS34" s="21" t="s">
         <v>107</v>
       </c>
@@ -10909,34 +10908,36 @@
         <v>107</v>
       </c>
       <c r="AU34" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV34" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="AV34" s="21" t="s">
-        <v>107</v>
-      </c>
       <c r="AW34" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX34" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="AX34" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY34" s="41" t="s">
+      <c r="AY34" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ34" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="AZ34" s="20">
+      <c r="BA34" s="20">
         <v>20150214</v>
       </c>
-      <c r="BA34" s="22"/>
-      <c r="BB34" s="21" t="s">
-        <v>107</v>
-      </c>
+      <c r="BB34" s="22"/>
       <c r="BC34" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD34" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="BD34" s="21" t="s">
+      <c r="BE34" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="BE34" s="22"/>
       <c r="BF34" s="22"/>
       <c r="BG34" s="22"/>
       <c r="BH34" s="22"/>
@@ -10960,47 +10961,45 @@
       <c r="BZ34" s="22"/>
       <c r="CA34" s="22"/>
       <c r="CB34" s="22"/>
-      <c r="CC34" s="21" t="s">
+      <c r="CC34" s="22"/>
+      <c r="CD34" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="CD34" s="22"/>
-      <c r="CE34" s="21" t="s">
+      <c r="CE34" s="22"/>
+      <c r="CF34" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="CF34" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG34" s="22"/>
-      <c r="CH34" s="21" t="s">
+      <c r="CG34" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH34" s="22"/>
+      <c r="CI34" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="CI34" s="21" t="s">
+      <c r="CJ34" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="CJ34" s="20">
+      <c r="CK34" s="20">
         <v>5</v>
       </c>
-      <c r="CK34" s="21" t="s">
+      <c r="CL34" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="CL34" s="21" t="s">
+      <c r="CM34" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="CM34" s="20">
+      <c r="CN34" s="20">
         <v>35</v>
       </c>
-      <c r="CN34" s="22"/>
       <c r="CO34" s="22"/>
       <c r="CP34" s="22"/>
-      <c r="CQ34" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="CR34" s="22"/>
-      <c r="CS34" s="21" t="s">
+      <c r="CQ34" s="22"/>
+      <c r="CR34" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS34" s="22"/>
+      <c r="CT34" s="21" t="s">
         <v>149</v>
-      </c>
-      <c r="CT34" s="21" t="s">
-        <v>146</v>
       </c>
       <c r="CU34" s="21" t="s">
         <v>146</v>
@@ -11009,24 +11008,27 @@
         <v>146</v>
       </c>
       <c r="CW34" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="CX34" s="21" t="s">
         <v>239</v>
-      </c>
-      <c r="CX34" s="21" t="s">
-        <v>240</v>
       </c>
       <c r="CY34" s="21" t="s">
         <v>240</v>
       </c>
       <c r="CZ34" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="DA34" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="DA34" s="21" t="s">
+      <c r="DB34" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="DB34" s="21" t="s">
+      <c r="DC34" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="DC34" s="21" t="s">
+      <c r="DD34" s="21" t="s">
         <v>241</v>
       </c>
     </row>
